--- a/Clinic Sign-Up Prototype_2.xlsx
+++ b/Clinic Sign-Up Prototype_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Desktop\Desktop\Clinics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA518AB-7496-462D-B0A2-B8640504F946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9293A77D-C146-4E9D-98C4-8C4D9D61C7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="-120" windowWidth="27945" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="975" yWindow="-120" windowWidth="27945" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form1" sheetId="1" r:id="rId1"/>
@@ -48,8 +48,6 @@
   <authors>
     <author>tc={94098443-3760-493B-9214-D07A3528F191}</author>
     <author>tc={CF6C3BA2-C646-478A-839A-AA48D231984A}</author>
-    <author>tc={976C2DB3-F7D6-4782-92DE-6A330FF592F7}</author>
-    <author>tc={3AC4832F-056B-44DC-8174-A1F6B295BA36}</author>
     <author>tc={4F500198-9B21-472B-BE69-CD14DE1FDA38}</author>
     <author>tc={FE70FC89-34DF-4E11-BEAF-983A57AD3CC5}</author>
     <author>tc={757A5800-8FEB-4935-ACA8-C7E9F54DA78B}</author>
@@ -71,25 +69,7 @@
     General volunteer can be any year (rows 4-7 should all be the same value) = 1</t>
       </text>
     </comment>
-    <comment ref="A14" authorId="2" shapeId="0" xr:uid="{976C2DB3-F7D6-4782-92DE-6A330FF592F7}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    (If possible) this many general volunteers should be returning (have experience at the clinic)</t>
-      </text>
-    </comment>
-    <comment ref="A15" authorId="3" shapeId="0" xr:uid="{3AC4832F-056B-44DC-8174-A1F6B295BA36}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    (If possible) this many general volunteers should also be able to speak Spanish and not need a translator.
-Reply:
-    Note these are not consumed from the translator pool, so Max Spanish Translators = 1, this will not affect that assignment.</t>
-      </text>
-    </comment>
-    <comment ref="A16" authorId="4" shapeId="0" xr:uid="{4F500198-9B21-472B-BE69-CD14DE1FDA38}">
+    <comment ref="A14" authorId="2" shapeId="0" xr:uid="{4F500198-9B21-472B-BE69-CD14DE1FDA38}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -99,7 +79,7 @@
     ONLY if only accept elective volunteers</t>
       </text>
     </comment>
-    <comment ref="A17" authorId="5" shapeId="0" xr:uid="{FE70FC89-34DF-4E11-BEAF-983A57AD3CC5}">
+    <comment ref="A15" authorId="3" shapeId="0" xr:uid="{FE70FC89-34DF-4E11-BEAF-983A57AD3CC5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -107,7 +87,7 @@
     Note this only applies after all preferences and other filters have been taken into account.</t>
       </text>
     </comment>
-    <comment ref="C17" authorId="6" shapeId="0" xr:uid="{757A5800-8FEB-4935-ACA8-C7E9F54DA78B}">
+    <comment ref="C15" authorId="4" shapeId="0" xr:uid="{757A5800-8FEB-4935-ACA8-C7E9F54DA78B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -120,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="625">
   <si>
     <t>ID</t>
   </si>
@@ -284,12 +264,6 @@
     <t>MS1, MS2, MS3, MS4</t>
   </si>
   <si>
-    <t>Preferred Returning</t>
-  </si>
-  <si>
-    <t>Preferred Spanish General</t>
-  </si>
-  <si>
     <t>Group 5</t>
   </si>
   <si>
@@ -317,9 +291,6 @@
     <t>Max General Volunteers</t>
   </si>
   <si>
-    <t>Volume</t>
-  </si>
-  <si>
     <t>MS0</t>
   </si>
   <si>
@@ -1958,9 +1929,6 @@
     <t>4/25 from 6-7:30 (CoH);No Dates Available / Not Interested;4/19 from 5-6:30 (Calvert);4/26 from 5-6:30 (Calvert);4/5 from 5:00-6:30 pm (Calvert)</t>
   </si>
   <si>
-    <t>John Sandy,Crystal Daniel,Rochelle Braithwaite,John Catchings,John Yates,Sandra Valdez</t>
-  </si>
-  <si>
     <t>Stephanie Sorenson,Phyllis Davis</t>
   </si>
   <si>
@@ -1979,38 +1947,41 @@
     <t>Javier Diclaudio,Michael Leatherwood</t>
   </si>
   <si>
-    <t>Kenneth Neal,Clarence Wilder,Arthur Stockton,Mary Javier,Ronald Shaver,Waldo Gray</t>
-  </si>
-  <si>
     <t>Kevin VanHorn,Kenneth Neal,Susan Tilford,Clarence Wilder</t>
   </si>
   <si>
-    <t>Kevin VanHorn,David Taylor,Joseph Dodd,Gregory Forbis</t>
-  </si>
-  <si>
     <t>Kevin VanHorn,John Sandy,Jeremiah Lopez,Kenneth Neal,Rochelle Braithwaite</t>
   </si>
   <si>
-    <t>Judy Salgado,John Sandy,Joseph Dodd,Rochelle Braithwaite,Arthur Stockton,John Catchings</t>
-  </si>
-  <si>
-    <t>John Sandy,Jeremiah Lopez,Mary Javier,Joseph Dodd,Ronald Shaver,Waldo Gray</t>
-  </si>
-  <si>
     <t>Kevin VanHorn,Crystal Daniel,John Sandy,John Catchings</t>
   </si>
   <si>
     <t>John Sandy,Daniel Baker,Rochelle Braithwaite,Kenneth Neal</t>
   </si>
   <si>
-    <t>John Sandy,Rochelle Braithwaite,Harry Villaman,Arthur Stockton,Myra Martinez,Sandra Valdez</t>
+    <t>John Sandy,Jeremiah Lopez,Joseph Dodd,Mary Javier,Ronald Shaver,Waldo Gray</t>
+  </si>
+  <si>
+    <t>John Sandy,Crystal Daniel,Rochelle Braithwaite,Arthur Stockton,John Catchings,John Yates</t>
+  </si>
+  <si>
+    <t>David Taylor,Kevin VanHorn,Joseph Dodd,Gregory Forbis</t>
+  </si>
+  <si>
+    <t>John Sandy,Rochelle Braithwaite,Harry Villaman,Arthur Stockton,Sandra Valdez,Myra Martinez</t>
+  </si>
+  <si>
+    <t>John Sandy,Judy Salgado,Joseph Dodd,Rochelle Braithwaite,Arthur Stockton,John Catchings</t>
+  </si>
+  <si>
+    <t>Kenneth Neal,Clarence Wilder,Mary Javier,Ronald Shaver,Waldo Gray,David Whapham</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2068,8 +2039,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2110,8 +2105,38 @@
         <bgColor rgb="FF5B9BD5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2134,13 +2159,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="22" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -2161,21 +2199,43 @@
     <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1"/>
     <xf numFmtId="1" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2504,25 +2564,16 @@
   <threadedComment ref="G9" dT="2023-04-26T01:08:44.70" personId="{C6176873-3DD2-4664-8BCC-1D98DDF8B11C}" id="{CF6C3BA2-C646-478A-839A-AA48D231984A}">
     <text>General volunteer can be any year (rows 4-7 should all be the same value) = 1</text>
   </threadedComment>
-  <threadedComment ref="A14" dT="2023-04-26T01:29:07.17" personId="{C6176873-3DD2-4664-8BCC-1D98DDF8B11C}" id="{976C2DB3-F7D6-4782-92DE-6A330FF592F7}">
-    <text>(If possible) this many general volunteers should be returning (have experience at the clinic)</text>
-  </threadedComment>
-  <threadedComment ref="A15" dT="2023-04-26T01:29:07.17" personId="{C6176873-3DD2-4664-8BCC-1D98DDF8B11C}" id="{3AC4832F-056B-44DC-8174-A1F6B295BA36}">
-    <text>(If possible) this many general volunteers should also be able to speak Spanish and not need a translator.</text>
-  </threadedComment>
-  <threadedComment ref="A15" dT="2023-04-26T02:22:59.85" personId="{C6176873-3DD2-4664-8BCC-1D98DDF8B11C}" id="{3324BDC6-A26E-4F90-82C8-7217A3777135}" parentId="{3AC4832F-056B-44DC-8174-A1F6B295BA36}">
-    <text>Note these are not consumed from the translator pool, so Max Spanish Translators = 1, this will not affect that assignment.</text>
-  </threadedComment>
-  <threadedComment ref="A16" dT="2023-04-26T02:24:03.45" personId="{C6176873-3DD2-4664-8BCC-1D98DDF8B11C}" id="{4F500198-9B21-472B-BE69-CD14DE1FDA38}">
+  <threadedComment ref="A14" dT="2023-04-26T02:24:03.45" personId="{C6176873-3DD2-4664-8BCC-1D98DDF8B11C}" id="{4F500198-9B21-472B-BE69-CD14DE1FDA38}">
     <text>Elective priority is higher than preference priority if YES</text>
   </threadedComment>
-  <threadedComment ref="A16" dT="2023-04-26T02:31:01.15" personId="{C6176873-3DD2-4664-8BCC-1D98DDF8B11C}" id="{71141014-04BE-48B5-90C8-55A7020F4CBB}" parentId="{4F500198-9B21-472B-BE69-CD14DE1FDA38}">
+  <threadedComment ref="A14" dT="2023-04-26T02:31:01.15" personId="{C6176873-3DD2-4664-8BCC-1D98DDF8B11C}" id="{71141014-04BE-48B5-90C8-55A7020F4CBB}" parentId="{4F500198-9B21-472B-BE69-CD14DE1FDA38}">
     <text>ONLY if only accept elective volunteers</text>
   </threadedComment>
-  <threadedComment ref="A17" dT="2023-04-26T01:46:25.67" personId="{C6176873-3DD2-4664-8BCC-1D98DDF8B11C}" id="{FE70FC89-34DF-4E11-BEAF-983A57AD3CC5}">
+  <threadedComment ref="A15" dT="2023-04-26T01:46:25.67" personId="{C6176873-3DD2-4664-8BCC-1D98DDF8B11C}" id="{FE70FC89-34DF-4E11-BEAF-983A57AD3CC5}">
     <text>Note this only applies after all preferences and other filters have been taken into account.</text>
   </threadedComment>
-  <threadedComment ref="C17" dT="2023-04-26T02:20:18.60" personId="{C6176873-3DD2-4664-8BCC-1D98DDF8B11C}" id="{757A5800-8FEB-4935-ACA8-C7E9F54DA78B}">
+  <threadedComment ref="C15" dT="2023-04-26T02:20:18.60" personId="{C6176873-3DD2-4664-8BCC-1D98DDF8B11C}" id="{757A5800-8FEB-4935-ACA8-C7E9F54DA78B}">
     <text>Choose from the longest waitlist</text>
   </threadedComment>
 </ThreadedComments>
@@ -2533,8 +2584,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2544,64 +2595,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="J1" s="16" t="s">
+      <c r="I1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="R1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="T1" s="16" t="s">
+      <c r="S1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" s="11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2623,7 +2674,7 @@
         <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>28</v>
@@ -2635,22 +2686,22 @@
         <v>20</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="P2" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>21</v>
@@ -2659,10 +2710,10 @@
         <v>21</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -2680,10 +2731,10 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>28</v>
@@ -2692,37 +2743,37 @@
         <v>22</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="T3" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -2740,10 +2791,10 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>30</v>
@@ -2755,10 +2806,10 @@
         <v>20</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>21</v>
@@ -2799,10 +2850,10 @@
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H5" t="s">
         <v>28</v>
@@ -2814,25 +2865,25 @@
         <v>20</v>
       </c>
       <c r="K5" t="s">
+        <v>122</v>
+      </c>
+      <c r="L5" t="s">
+        <v>123</v>
+      </c>
+      <c r="M5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O5" t="s">
         <v>125</v>
       </c>
-      <c r="L5" t="s">
+      <c r="Q5" t="s">
         <v>126</v>
       </c>
-      <c r="M5" t="s">
+      <c r="R5" t="s">
+        <v>94</v>
+      </c>
+      <c r="T5" t="s">
         <v>127</v>
-      </c>
-      <c r="O5" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>129</v>
-      </c>
-      <c r="R5" t="s">
-        <v>97</v>
-      </c>
-      <c r="T5" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -2849,10 +2900,10 @@
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H6" t="s">
         <v>30</v>
@@ -2861,28 +2912,28 @@
         <v>22</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K6" t="s">
         <v>37</v>
       </c>
       <c r="L6" t="s">
+        <v>130</v>
+      </c>
+      <c r="O6" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>132</v>
+      </c>
+      <c r="R6" t="s">
+        <v>95</v>
+      </c>
+      <c r="S6" t="s">
+        <v>96</v>
+      </c>
+      <c r="T6" t="s">
         <v>133</v>
-      </c>
-      <c r="O6" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>135</v>
-      </c>
-      <c r="R6" t="s">
-        <v>98</v>
-      </c>
-      <c r="S6" t="s">
-        <v>99</v>
-      </c>
-      <c r="T6" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -2899,10 +2950,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H7" t="s">
         <v>28</v>
@@ -2911,31 +2962,31 @@
         <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K7" t="s">
         <v>40</v>
       </c>
       <c r="L7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M7" t="s">
+        <v>136</v>
+      </c>
+      <c r="N7" t="s">
+        <v>137</v>
+      </c>
+      <c r="O7" t="s">
         <v>138</v>
       </c>
-      <c r="M7" t="s">
+      <c r="P7" t="s">
         <v>139</v>
       </c>
-      <c r="N7" t="s">
+      <c r="Q7" t="s">
         <v>140</v>
       </c>
-      <c r="O7" t="s">
-        <v>141</v>
-      </c>
-      <c r="P7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>143</v>
-      </c>
       <c r="T7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -2952,10 +3003,10 @@
         <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H8" t="s">
         <v>28</v>
@@ -2964,28 +3015,28 @@
         <v>22</v>
       </c>
       <c r="J8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K8" t="s">
+        <v>143</v>
+      </c>
+      <c r="L8" t="s">
+        <v>144</v>
+      </c>
+      <c r="M8" t="s">
+        <v>145</v>
+      </c>
+      <c r="N8" t="s">
         <v>146</v>
       </c>
-      <c r="L8" t="s">
+      <c r="R8" t="s">
         <v>147</v>
       </c>
-      <c r="M8" t="s">
+      <c r="S8" t="s">
         <v>148</v>
       </c>
-      <c r="N8" t="s">
-        <v>149</v>
-      </c>
-      <c r="R8" t="s">
-        <v>150</v>
-      </c>
-      <c r="S8" t="s">
-        <v>151</v>
-      </c>
       <c r="T8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -3002,10 +3053,10 @@
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H9" t="s">
         <v>30</v>
@@ -3017,25 +3068,25 @@
         <v>20</v>
       </c>
       <c r="K9" t="s">
+        <v>151</v>
+      </c>
+      <c r="L9" t="s">
+        <v>152</v>
+      </c>
+      <c r="M9" t="s">
+        <v>153</v>
+      </c>
+      <c r="O9" t="s">
         <v>154</v>
       </c>
-      <c r="L9" t="s">
+      <c r="Q9" t="s">
         <v>155</v>
       </c>
-      <c r="M9" t="s">
-        <v>156</v>
-      </c>
-      <c r="O9" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>158</v>
-      </c>
       <c r="S9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="T9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -3052,43 +3103,43 @@
         <v>18</v>
       </c>
       <c r="F10" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" t="s">
+        <v>157</v>
+      </c>
+      <c r="H10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" t="s">
+        <v>158</v>
+      </c>
+      <c r="L10" t="s">
         <v>159</v>
       </c>
-      <c r="G10" t="s">
+      <c r="M10" t="s">
         <v>160</v>
       </c>
-      <c r="H10" t="s">
-        <v>100</v>
-      </c>
-      <c r="I10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="O10" t="s">
         <v>161</v>
       </c>
-      <c r="L10" t="s">
+      <c r="P10" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>132</v>
+      </c>
+      <c r="R10" t="s">
+        <v>107</v>
+      </c>
+      <c r="T10" t="s">
         <v>162</v>
-      </c>
-      <c r="M10" t="s">
-        <v>163</v>
-      </c>
-      <c r="O10" t="s">
-        <v>164</v>
-      </c>
-      <c r="P10" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>135</v>
-      </c>
-      <c r="R10" t="s">
-        <v>110</v>
-      </c>
-      <c r="T10" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -3105,10 +3156,10 @@
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H11" t="s">
         <v>24</v>
@@ -3120,31 +3171,31 @@
         <v>22</v>
       </c>
       <c r="K11" t="s">
+        <v>165</v>
+      </c>
+      <c r="L11" t="s">
+        <v>166</v>
+      </c>
+      <c r="M11" t="s">
+        <v>167</v>
+      </c>
+      <c r="N11" t="s">
         <v>168</v>
       </c>
-      <c r="L11" t="s">
+      <c r="O11" t="s">
         <v>169</v>
       </c>
-      <c r="M11" t="s">
+      <c r="Q11" t="s">
+        <v>113</v>
+      </c>
+      <c r="R11" t="s">
         <v>170</v>
       </c>
-      <c r="N11" t="s">
-        <v>171</v>
-      </c>
-      <c r="O11" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>116</v>
-      </c>
-      <c r="R11" t="s">
-        <v>173</v>
-      </c>
       <c r="S11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="T11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -3161,10 +3212,10 @@
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H12" t="s">
         <v>28</v>
@@ -3176,28 +3227,28 @@
         <v>22</v>
       </c>
       <c r="K12" t="s">
+        <v>173</v>
+      </c>
+      <c r="L12" t="s">
+        <v>174</v>
+      </c>
+      <c r="M12" t="s">
+        <v>175</v>
+      </c>
+      <c r="N12" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>94</v>
+      </c>
+      <c r="R12" t="s">
         <v>176</v>
       </c>
-      <c r="L12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M12" t="s">
-        <v>178</v>
-      </c>
-      <c r="N12" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>97</v>
-      </c>
-      <c r="R12" t="s">
-        <v>179</v>
-      </c>
       <c r="S12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="T12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -3214,10 +3265,10 @@
         <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H13" t="s">
         <v>19</v>
@@ -3226,28 +3277,28 @@
         <v>22</v>
       </c>
       <c r="J13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="R13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="S13" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="T13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -3264,10 +3315,10 @@
         <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G14" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H14" t="s">
         <v>28</v>
@@ -3276,25 +3327,25 @@
         <v>20</v>
       </c>
       <c r="J14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K14" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="N14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O14" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="Q14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="S14" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -3311,10 +3362,10 @@
         <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G15" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H15" t="s">
         <v>24</v>
@@ -3323,28 +3374,28 @@
         <v>22</v>
       </c>
       <c r="J15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L15" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="Q15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="T15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -3361,10 +3412,10 @@
         <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G16" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H16" t="s">
         <v>28</v>
@@ -3376,34 +3427,34 @@
         <v>22</v>
       </c>
       <c r="K16" t="s">
+        <v>193</v>
+      </c>
+      <c r="L16" t="s">
+        <v>194</v>
+      </c>
+      <c r="M16" t="s">
+        <v>195</v>
+      </c>
+      <c r="N16" t="s">
         <v>196</v>
       </c>
-      <c r="L16" t="s">
+      <c r="O16" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" t="s">
         <v>197</v>
       </c>
-      <c r="M16" t="s">
+      <c r="Q16" t="s">
+        <v>126</v>
+      </c>
+      <c r="R16" t="s">
+        <v>95</v>
+      </c>
+      <c r="S16" t="s">
+        <v>133</v>
+      </c>
+      <c r="T16" t="s">
         <v>198</v>
-      </c>
-      <c r="N16" t="s">
-        <v>199</v>
-      </c>
-      <c r="O16" t="s">
-        <v>106</v>
-      </c>
-      <c r="P16" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>129</v>
-      </c>
-      <c r="R16" t="s">
-        <v>98</v>
-      </c>
-      <c r="S16" t="s">
-        <v>136</v>
-      </c>
-      <c r="T16" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -3420,10 +3471,10 @@
         <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G17" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H17" t="s">
         <v>19</v>
@@ -3432,31 +3483,31 @@
         <v>20</v>
       </c>
       <c r="J17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K17" t="s">
         <v>40</v>
       </c>
       <c r="L17" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="P17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="S17" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="T17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -3473,10 +3524,10 @@
         <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G18" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H18" t="s">
         <v>24</v>
@@ -3488,22 +3539,22 @@
         <v>22</v>
       </c>
       <c r="K18" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L18" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N18" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O18" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -3520,10 +3571,10 @@
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G19" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H19" t="s">
         <v>28</v>
@@ -3532,34 +3583,34 @@
         <v>22</v>
       </c>
       <c r="J19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K19" t="s">
+        <v>210</v>
+      </c>
+      <c r="L19" t="s">
+        <v>211</v>
+      </c>
+      <c r="M19" t="s">
+        <v>98</v>
+      </c>
+      <c r="N19" t="s">
+        <v>196</v>
+      </c>
+      <c r="O19" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>155</v>
+      </c>
+      <c r="R19" t="s">
+        <v>95</v>
+      </c>
+      <c r="S19" t="s">
         <v>213</v>
       </c>
-      <c r="L19" t="s">
-        <v>214</v>
-      </c>
-      <c r="M19" t="s">
-        <v>101</v>
-      </c>
-      <c r="N19" t="s">
-        <v>199</v>
-      </c>
-      <c r="O19" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>158</v>
-      </c>
-      <c r="R19" t="s">
-        <v>98</v>
-      </c>
-      <c r="S19" t="s">
-        <v>216</v>
-      </c>
       <c r="T19" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -3576,40 +3627,40 @@
         <v>18</v>
       </c>
       <c r="F20" t="s">
+        <v>214</v>
+      </c>
+      <c r="G20" t="s">
+        <v>215</v>
+      </c>
+      <c r="H20" t="s">
+        <v>97</v>
+      </c>
+      <c r="I20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" t="s">
+        <v>216</v>
+      </c>
+      <c r="L20" t="s">
         <v>217</v>
       </c>
-      <c r="G20" t="s">
+      <c r="N20" t="s">
         <v>218</v>
       </c>
-      <c r="H20" t="s">
-        <v>100</v>
-      </c>
-      <c r="I20" t="s">
-        <v>22</v>
-      </c>
-      <c r="J20" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="O20" t="s">
         <v>219</v>
       </c>
-      <c r="L20" t="s">
-        <v>220</v>
-      </c>
-      <c r="N20" t="s">
-        <v>221</v>
-      </c>
-      <c r="O20" t="s">
-        <v>222</v>
-      </c>
       <c r="P20" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>94</v>
+      </c>
+      <c r="T20" t="s">
         <v>104</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>97</v>
-      </c>
-      <c r="T20" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -3626,10 +3677,10 @@
         <v>18</v>
       </c>
       <c r="F21" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G21" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H21" t="s">
         <v>30</v>
@@ -3638,28 +3689,28 @@
         <v>22</v>
       </c>
       <c r="J21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K21" t="s">
+        <v>222</v>
+      </c>
+      <c r="L21" t="s">
+        <v>223</v>
+      </c>
+      <c r="M21" t="s">
+        <v>98</v>
+      </c>
+      <c r="O21" t="s">
+        <v>224</v>
+      </c>
+      <c r="R21" t="s">
         <v>225</v>
       </c>
-      <c r="L21" t="s">
-        <v>226</v>
-      </c>
-      <c r="M21" t="s">
-        <v>101</v>
-      </c>
-      <c r="O21" t="s">
-        <v>227</v>
-      </c>
-      <c r="R21" t="s">
-        <v>228</v>
-      </c>
       <c r="S21" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="T21" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -3676,10 +3727,10 @@
         <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G22" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H22" t="s">
         <v>28</v>
@@ -3688,37 +3739,37 @@
         <v>22</v>
       </c>
       <c r="J22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K22" t="s">
+        <v>228</v>
+      </c>
+      <c r="L22" t="s">
+        <v>229</v>
+      </c>
+      <c r="M22" t="s">
+        <v>230</v>
+      </c>
+      <c r="N22" t="s">
+        <v>146</v>
+      </c>
+      <c r="O22" t="s">
         <v>231</v>
       </c>
-      <c r="L22" t="s">
+      <c r="P22" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>126</v>
+      </c>
+      <c r="R22" t="s">
         <v>232</v>
       </c>
-      <c r="M22" t="s">
-        <v>233</v>
-      </c>
-      <c r="N22" t="s">
-        <v>149</v>
-      </c>
-      <c r="O22" t="s">
-        <v>234</v>
-      </c>
-      <c r="P22" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>129</v>
-      </c>
-      <c r="R22" t="s">
-        <v>235</v>
-      </c>
       <c r="S22" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="T22" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -3735,13 +3786,13 @@
         <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G23" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I23" t="s">
         <v>20</v>
@@ -3750,31 +3801,31 @@
         <v>20</v>
       </c>
       <c r="K23" t="s">
+        <v>235</v>
+      </c>
+      <c r="L23" t="s">
+        <v>236</v>
+      </c>
+      <c r="M23" t="s">
+        <v>237</v>
+      </c>
+      <c r="N23" t="s">
+        <v>218</v>
+      </c>
+      <c r="O23" t="s">
         <v>238</v>
       </c>
-      <c r="L23" t="s">
+      <c r="P23" t="s">
         <v>239</v>
       </c>
-      <c r="M23" t="s">
-        <v>240</v>
-      </c>
-      <c r="N23" t="s">
-        <v>221</v>
-      </c>
-      <c r="O23" t="s">
-        <v>241</v>
-      </c>
-      <c r="P23" t="s">
-        <v>242</v>
-      </c>
       <c r="Q23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="S23" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="T23" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -3791,10 +3842,10 @@
         <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G24" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H24" t="s">
         <v>19</v>
@@ -3803,25 +3854,25 @@
         <v>20</v>
       </c>
       <c r="J24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K24" t="s">
+        <v>242</v>
+      </c>
+      <c r="L24" t="s">
+        <v>243</v>
+      </c>
+      <c r="M24" t="s">
+        <v>244</v>
+      </c>
+      <c r="O24" t="s">
         <v>245</v>
       </c>
-      <c r="L24" t="s">
-        <v>246</v>
-      </c>
-      <c r="M24" t="s">
-        <v>247</v>
-      </c>
-      <c r="O24" t="s">
-        <v>248</v>
-      </c>
       <c r="Q24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="S24" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -3838,13 +3889,13 @@
         <v>18</v>
       </c>
       <c r="F25" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G25" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I25" t="s">
         <v>20</v>
@@ -3856,22 +3907,22 @@
         <v>37</v>
       </c>
       <c r="L25" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M25" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O25" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="P25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="R25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="S25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -3888,13 +3939,13 @@
         <v>18</v>
       </c>
       <c r="F26" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G26" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I26" t="s">
         <v>20</v>
@@ -3903,31 +3954,31 @@
         <v>20</v>
       </c>
       <c r="K26" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L26" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="N26" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="O26" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P26" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q26" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="R26" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="S26" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T26" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
@@ -3944,10 +3995,10 @@
         <v>18</v>
       </c>
       <c r="F27" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G27" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H27" t="s">
         <v>24</v>
@@ -3959,22 +4010,22 @@
         <v>22</v>
       </c>
       <c r="L27" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="N27" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O27" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P27" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="Q27" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="R27" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
@@ -3991,13 +4042,13 @@
         <v>18</v>
       </c>
       <c r="F28" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G28" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H28" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I28" t="s">
         <v>20</v>
@@ -4006,25 +4057,25 @@
         <v>20</v>
       </c>
       <c r="K28" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L28" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="M28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N28" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O28" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="S28" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="T28" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -4041,10 +4092,10 @@
         <v>18</v>
       </c>
       <c r="F29" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G29" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H29" t="s">
         <v>30</v>
@@ -4056,31 +4107,31 @@
         <v>20</v>
       </c>
       <c r="K29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="L29" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="M29" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N29" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O29" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="P29" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="R29" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="S29" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="T29" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -4097,13 +4148,13 @@
         <v>18</v>
       </c>
       <c r="F30" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G30" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I30" t="s">
         <v>22</v>
@@ -4115,22 +4166,22 @@
         <v>37</v>
       </c>
       <c r="L30" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M30" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O30" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q30" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="S30" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="T30" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -4147,10 +4198,10 @@
         <v>18</v>
       </c>
       <c r="F31" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G31" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H31" t="s">
         <v>19</v>
@@ -4162,25 +4213,25 @@
         <v>20</v>
       </c>
       <c r="K31" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L31" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="N31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P31" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="R31" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="S31" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="T31" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
@@ -4197,10 +4248,10 @@
         <v>18</v>
       </c>
       <c r="F32" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G32" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H32" t="s">
         <v>19</v>
@@ -4209,37 +4260,37 @@
         <v>20</v>
       </c>
       <c r="J32" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K32" t="s">
+        <v>280</v>
+      </c>
+      <c r="L32" t="s">
+        <v>281</v>
+      </c>
+      <c r="M32" t="s">
+        <v>282</v>
+      </c>
+      <c r="N32" t="s">
+        <v>99</v>
+      </c>
+      <c r="O32" t="s">
         <v>283</v>
       </c>
-      <c r="L32" t="s">
+      <c r="P32" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q32" t="s">
         <v>284</v>
       </c>
-      <c r="M32" t="s">
-        <v>285</v>
-      </c>
-      <c r="N32" t="s">
-        <v>102</v>
-      </c>
-      <c r="O32" t="s">
-        <v>286</v>
-      </c>
-      <c r="P32" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>287</v>
-      </c>
       <c r="R32" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="S32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="T32" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
@@ -4256,10 +4307,10 @@
         <v>18</v>
       </c>
       <c r="F33" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G33" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H33" t="s">
         <v>19</v>
@@ -4271,25 +4322,25 @@
         <v>20</v>
       </c>
       <c r="L33" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M33" t="s">
+        <v>124</v>
+      </c>
+      <c r="O33" t="s">
+        <v>288</v>
+      </c>
+      <c r="P33" t="s">
+        <v>101</v>
+      </c>
+      <c r="R33" t="s">
+        <v>170</v>
+      </c>
+      <c r="S33" t="s">
         <v>127</v>
       </c>
-      <c r="O33" t="s">
-        <v>291</v>
-      </c>
-      <c r="P33" t="s">
-        <v>104</v>
-      </c>
-      <c r="R33" t="s">
-        <v>173</v>
-      </c>
-      <c r="S33" t="s">
-        <v>130</v>
-      </c>
       <c r="T33" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -4306,10 +4357,10 @@
         <v>18</v>
       </c>
       <c r="F34" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G34" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H34" t="s">
         <v>28</v>
@@ -4321,25 +4372,25 @@
         <v>22</v>
       </c>
       <c r="K34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="L34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="O34" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="P34" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q34" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="R34" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="T34" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -4356,43 +4407,43 @@
         <v>18</v>
       </c>
       <c r="F35" t="s">
+        <v>294</v>
+      </c>
+      <c r="G35" t="s">
+        <v>295</v>
+      </c>
+      <c r="H35" t="s">
+        <v>97</v>
+      </c>
+      <c r="I35" t="s">
+        <v>22</v>
+      </c>
+      <c r="J35" t="s">
+        <v>22</v>
+      </c>
+      <c r="K35" t="s">
+        <v>296</v>
+      </c>
+      <c r="L35" t="s">
         <v>297</v>
       </c>
-      <c r="G35" t="s">
+      <c r="M35" t="s">
         <v>298</v>
       </c>
-      <c r="H35" t="s">
-        <v>100</v>
-      </c>
-      <c r="I35" t="s">
-        <v>22</v>
-      </c>
-      <c r="J35" t="s">
-        <v>22</v>
-      </c>
-      <c r="K35" t="s">
-        <v>299</v>
-      </c>
-      <c r="L35" t="s">
-        <v>300</v>
-      </c>
-      <c r="M35" t="s">
-        <v>301</v>
-      </c>
       <c r="N35" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O35" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P35" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q35" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="S35" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
@@ -4409,43 +4460,43 @@
         <v>18</v>
       </c>
       <c r="F36" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G36" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H36" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I36" t="s">
         <v>20</v>
       </c>
       <c r="J36" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K36" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L36" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="N36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O36" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="P36" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Q36" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="S36" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="T36" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
@@ -4462,10 +4513,10 @@
         <v>18</v>
       </c>
       <c r="F37" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G37" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H37" t="s">
         <v>19</v>
@@ -4474,25 +4525,25 @@
         <v>20</v>
       </c>
       <c r="J37" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L37" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M37" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="O37" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q37" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="R37" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="S37" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
@@ -4509,10 +4560,10 @@
         <v>18</v>
       </c>
       <c r="F38" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G38" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H38" t="s">
         <v>24</v>
@@ -4521,28 +4572,28 @@
         <v>22</v>
       </c>
       <c r="J38" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L38" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M38" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="N38" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="O38" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="R38" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="S38" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="T38" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
@@ -4559,10 +4610,10 @@
         <v>18</v>
       </c>
       <c r="F39" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G39" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H39" t="s">
         <v>19</v>
@@ -4574,28 +4625,28 @@
         <v>20</v>
       </c>
       <c r="K39" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L39" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="M39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N39" t="s">
+        <v>146</v>
+      </c>
+      <c r="O39" t="s">
+        <v>316</v>
+      </c>
+      <c r="P39" t="s">
         <v>101</v>
       </c>
-      <c r="N39" t="s">
-        <v>149</v>
-      </c>
-      <c r="O39" t="s">
-        <v>319</v>
-      </c>
-      <c r="P39" t="s">
+      <c r="R39" t="s">
+        <v>95</v>
+      </c>
+      <c r="S39" t="s">
         <v>104</v>
-      </c>
-      <c r="R39" t="s">
-        <v>98</v>
-      </c>
-      <c r="S39" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
@@ -4612,10 +4663,10 @@
         <v>18</v>
       </c>
       <c r="F40" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G40" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H40" t="s">
         <v>30</v>
@@ -4627,28 +4678,28 @@
         <v>20</v>
       </c>
       <c r="L40" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M40" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N40" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="O40" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q40" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="R40" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="S40" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="T40" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
@@ -4665,10 +4716,10 @@
         <v>18</v>
       </c>
       <c r="F41" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G41" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H41" t="s">
         <v>19</v>
@@ -4677,28 +4728,28 @@
         <v>22</v>
       </c>
       <c r="J41" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K41" t="s">
+        <v>324</v>
+      </c>
+      <c r="L41" t="s">
+        <v>325</v>
+      </c>
+      <c r="M41" t="s">
+        <v>326</v>
+      </c>
+      <c r="O41" t="s">
         <v>327</v>
       </c>
-      <c r="L41" t="s">
+      <c r="P41" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>126</v>
+      </c>
+      <c r="R41" t="s">
         <v>328</v>
-      </c>
-      <c r="M41" t="s">
-        <v>329</v>
-      </c>
-      <c r="O41" t="s">
-        <v>330</v>
-      </c>
-      <c r="P41" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>129</v>
-      </c>
-      <c r="R41" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
@@ -4715,10 +4766,10 @@
         <v>18</v>
       </c>
       <c r="F42" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G42" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H42" t="s">
         <v>24</v>
@@ -4727,28 +4778,28 @@
         <v>22</v>
       </c>
       <c r="J42" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K42" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L42" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="M42" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="N42" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="R42" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="S42" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
@@ -4765,40 +4816,40 @@
         <v>18</v>
       </c>
       <c r="F43" t="s">
+        <v>334</v>
+      </c>
+      <c r="G43" t="s">
+        <v>335</v>
+      </c>
+      <c r="H43" t="s">
+        <v>97</v>
+      </c>
+      <c r="I43" t="s">
+        <v>22</v>
+      </c>
+      <c r="J43" t="s">
+        <v>22</v>
+      </c>
+      <c r="K43" t="s">
+        <v>336</v>
+      </c>
+      <c r="L43" t="s">
         <v>337</v>
       </c>
-      <c r="G43" t="s">
+      <c r="M43" t="s">
         <v>338</v>
       </c>
-      <c r="H43" t="s">
-        <v>100</v>
-      </c>
-      <c r="I43" t="s">
-        <v>22</v>
-      </c>
-      <c r="J43" t="s">
-        <v>22</v>
-      </c>
-      <c r="K43" t="s">
+      <c r="O43" t="s">
         <v>339</v>
       </c>
-      <c r="L43" t="s">
-        <v>340</v>
-      </c>
-      <c r="M43" t="s">
-        <v>341</v>
-      </c>
-      <c r="O43" t="s">
-        <v>342</v>
-      </c>
       <c r="P43" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q43" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="R43" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
@@ -4815,13 +4866,13 @@
         <v>18</v>
       </c>
       <c r="F44" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G44" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H44" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I44" t="s">
         <v>22</v>
@@ -4830,25 +4881,25 @@
         <v>20</v>
       </c>
       <c r="K44" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="L44" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="O44" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="P44" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Q44" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="S44" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="T44" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
@@ -4865,40 +4916,40 @@
         <v>18</v>
       </c>
       <c r="F45" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G45" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H45" t="s">
+        <v>97</v>
+      </c>
+      <c r="I45" t="s">
+        <v>22</v>
+      </c>
+      <c r="J45" t="s">
+        <v>71</v>
+      </c>
+      <c r="L45" t="s">
+        <v>346</v>
+      </c>
+      <c r="M45" t="s">
+        <v>160</v>
+      </c>
+      <c r="N45" t="s">
+        <v>99</v>
+      </c>
+      <c r="O45" t="s">
+        <v>347</v>
+      </c>
+      <c r="P45" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q45" t="s">
         <v>100</v>
       </c>
-      <c r="I45" t="s">
-        <v>22</v>
-      </c>
-      <c r="J45" t="s">
-        <v>74</v>
-      </c>
-      <c r="L45" t="s">
-        <v>349</v>
-      </c>
-      <c r="M45" t="s">
-        <v>163</v>
-      </c>
-      <c r="N45" t="s">
-        <v>102</v>
-      </c>
-      <c r="O45" t="s">
-        <v>350</v>
-      </c>
-      <c r="P45" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>103</v>
-      </c>
       <c r="R45" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
@@ -4915,40 +4966,40 @@
         <v>18</v>
       </c>
       <c r="F46" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G46" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H46" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I46" t="s">
         <v>20</v>
       </c>
       <c r="J46" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K46" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L46" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="O46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q46" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="S46" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
@@ -4965,10 +5016,10 @@
         <v>18</v>
       </c>
       <c r="F47" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G47" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H47" t="s">
         <v>30</v>
@@ -4980,28 +5031,28 @@
         <v>22</v>
       </c>
       <c r="K47" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L47" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="M47" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="N47" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q47" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="S47" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="T47" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
@@ -5018,10 +5069,10 @@
         <v>18</v>
       </c>
       <c r="F48" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G48" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H48" t="s">
         <v>19</v>
@@ -5030,28 +5081,28 @@
         <v>22</v>
       </c>
       <c r="J48" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K48" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="L48" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="M48" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="Q48" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="T48" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
@@ -5068,10 +5119,10 @@
         <v>18</v>
       </c>
       <c r="F49" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G49" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H49" t="s">
         <v>19</v>
@@ -5083,22 +5134,22 @@
         <v>22</v>
       </c>
       <c r="L49" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="N49" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O49" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="P49" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q49" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="R49" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
@@ -5115,40 +5166,40 @@
         <v>18</v>
       </c>
       <c r="F50" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G50" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H50" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I50" t="s">
         <v>20</v>
       </c>
       <c r="J50" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K50" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="L50" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="N50" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="O50" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="P50" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="S50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="T50" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
@@ -5165,10 +5216,10 @@
         <v>18</v>
       </c>
       <c r="F51" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G51" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H51" t="s">
         <v>19</v>
@@ -5177,34 +5228,34 @@
         <v>22</v>
       </c>
       <c r="J51" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K51" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="L51" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="M51" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N51" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O51" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="P51" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="Q51" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="R51" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="T51" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
@@ -5221,10 +5272,10 @@
         <v>18</v>
       </c>
       <c r="F52" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G52" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="H52" t="s">
         <v>30</v>
@@ -5236,22 +5287,22 @@
         <v>22</v>
       </c>
       <c r="K52" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="L52" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="M52" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O52" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="R52" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="T52" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
@@ -5268,13 +5319,13 @@
         <v>18</v>
       </c>
       <c r="F53" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G53" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H53" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I53" t="s">
         <v>22</v>
@@ -5283,28 +5334,28 @@
         <v>20</v>
       </c>
       <c r="K53" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="L53" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M53" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N53" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="O53" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="Q53" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="R53" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="S53" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
@@ -5321,10 +5372,10 @@
         <v>18</v>
       </c>
       <c r="F54" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G54" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H54" t="s">
         <v>30</v>
@@ -5336,31 +5387,31 @@
         <v>22</v>
       </c>
       <c r="L54" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M54" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N54" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O54" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="P54" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q54" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R54" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S54" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="T54" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
@@ -5377,10 +5428,10 @@
         <v>18</v>
       </c>
       <c r="F55" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G55" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H55" t="s">
         <v>19</v>
@@ -5389,28 +5440,28 @@
         <v>20</v>
       </c>
       <c r="J55" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L55" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="M55" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="O55" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="P55" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="Q55" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R55" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="S55" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
@@ -5427,10 +5478,10 @@
         <v>18</v>
       </c>
       <c r="F56" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G56" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H56" t="s">
         <v>28</v>
@@ -5439,34 +5490,34 @@
         <v>22</v>
       </c>
       <c r="J56" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K56" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="L56" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M56" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="N56" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O56" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="P56" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="Q56" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="R56" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="T56" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
@@ -5483,10 +5534,10 @@
         <v>18</v>
       </c>
       <c r="F57" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G57" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H57" t="s">
         <v>24</v>
@@ -5498,19 +5549,19 @@
         <v>22</v>
       </c>
       <c r="L57" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="N57" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O57" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="P57" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="S57" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
@@ -5527,10 +5578,10 @@
         <v>18</v>
       </c>
       <c r="F58" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G58" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H58" t="s">
         <v>24</v>
@@ -5539,31 +5590,31 @@
         <v>20</v>
       </c>
       <c r="J58" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K58" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="L58" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="N58" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O58" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="P58" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q58" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="S58" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="T58" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
@@ -5580,10 +5631,10 @@
         <v>18</v>
       </c>
       <c r="F59" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G59" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="H59" t="s">
         <v>24</v>
@@ -5595,28 +5646,28 @@
         <v>22</v>
       </c>
       <c r="K59" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="L59" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="N59" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="O59" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="P59" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="Q59" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="S59" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="T59" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
@@ -5633,10 +5684,10 @@
         <v>18</v>
       </c>
       <c r="F60" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G60" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H60" t="s">
         <v>30</v>
@@ -5648,19 +5699,19 @@
         <v>22</v>
       </c>
       <c r="L60" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="M60" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O60" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="P60" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="R60" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
@@ -5677,10 +5728,10 @@
         <v>18</v>
       </c>
       <c r="F61" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G61" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="H61" t="s">
         <v>30</v>
@@ -5692,28 +5743,28 @@
         <v>22</v>
       </c>
       <c r="K61" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="L61" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="M61" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="N61" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O61" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q61" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="R61" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="T61" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
@@ -5730,10 +5781,10 @@
         <v>18</v>
       </c>
       <c r="F62" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G62" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H62" t="s">
         <v>24</v>
@@ -5745,31 +5796,31 @@
         <v>22</v>
       </c>
       <c r="K62" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="L62" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="M62" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N62" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O62" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="Q62" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R62" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="S62" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T62" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
@@ -5786,13 +5837,13 @@
         <v>18</v>
       </c>
       <c r="F63" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G63" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H63" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I63" t="s">
         <v>22</v>
@@ -5801,25 +5852,25 @@
         <v>20</v>
       </c>
       <c r="K63" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="L63" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="M63" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N63" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="O63" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="Q63" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="T63" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
@@ -5836,10 +5887,10 @@
         <v>18</v>
       </c>
       <c r="F64" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G64" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H64" t="s">
         <v>28</v>
@@ -5851,28 +5902,28 @@
         <v>22</v>
       </c>
       <c r="K64" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L64" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="M64" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="N64" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O64" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="R64" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="S64" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="T64" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
@@ -5889,10 +5940,10 @@
         <v>18</v>
       </c>
       <c r="F65" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G65" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H65" t="s">
         <v>28</v>
@@ -5907,16 +5958,16 @@
         <v>41</v>
       </c>
       <c r="L65" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="M65" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="Q65" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T65" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
@@ -5933,10 +5984,10 @@
         <v>18</v>
       </c>
       <c r="F66" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G66" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H66" t="s">
         <v>30</v>
@@ -5948,31 +5999,31 @@
         <v>20</v>
       </c>
       <c r="K66" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="L66" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="M66" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="N66" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="O66" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="Q66" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="R66" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="S66" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="T66" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
@@ -5989,13 +6040,13 @@
         <v>18</v>
       </c>
       <c r="F67" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G67" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H67" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I67" t="s">
         <v>20</v>
@@ -6004,28 +6055,28 @@
         <v>22</v>
       </c>
       <c r="K67" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L67" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M67" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O67" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="P67" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="R67" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="S67" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="T67" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
@@ -6042,10 +6093,10 @@
         <v>18</v>
       </c>
       <c r="F68" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G68" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H68" t="s">
         <v>24</v>
@@ -6057,22 +6108,22 @@
         <v>22</v>
       </c>
       <c r="K68" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="L68" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="M68" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="Q68" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="S68" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="T68" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
@@ -6089,10 +6140,10 @@
         <v>18</v>
       </c>
       <c r="F69" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G69" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H69" t="s">
         <v>30</v>
@@ -6104,22 +6155,22 @@
         <v>22</v>
       </c>
       <c r="L69" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="M69" t="s">
+        <v>98</v>
+      </c>
+      <c r="N69" t="s">
+        <v>218</v>
+      </c>
+      <c r="O69" t="s">
+        <v>452</v>
+      </c>
+      <c r="P69" t="s">
         <v>101</v>
       </c>
-      <c r="N69" t="s">
-        <v>221</v>
-      </c>
-      <c r="O69" t="s">
-        <v>455</v>
-      </c>
-      <c r="P69" t="s">
-        <v>104</v>
-      </c>
       <c r="Q69" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
@@ -6136,10 +6187,10 @@
         <v>18</v>
       </c>
       <c r="F70" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G70" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="H70" t="s">
         <v>28</v>
@@ -6148,34 +6199,34 @@
         <v>22</v>
       </c>
       <c r="J70" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K70" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="L70" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="M70" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="N70" t="s">
+        <v>93</v>
+      </c>
+      <c r="O70" t="s">
+        <v>457</v>
+      </c>
+      <c r="P70" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>258</v>
+      </c>
+      <c r="S70" t="s">
+        <v>133</v>
+      </c>
+      <c r="T70" t="s">
         <v>96</v>
-      </c>
-      <c r="O70" t="s">
-        <v>460</v>
-      </c>
-      <c r="P70" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>261</v>
-      </c>
-      <c r="S70" t="s">
-        <v>136</v>
-      </c>
-      <c r="T70" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
@@ -6192,10 +6243,10 @@
         <v>18</v>
       </c>
       <c r="F71" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G71" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H71" t="s">
         <v>19</v>
@@ -6204,28 +6255,28 @@
         <v>20</v>
       </c>
       <c r="J71" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K71" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="L71" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="O71" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="Q71" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="R71" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="S71" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="T71" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
@@ -6242,10 +6293,10 @@
         <v>18</v>
       </c>
       <c r="F72" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G72" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="H72" t="s">
         <v>19</v>
@@ -6257,28 +6308,28 @@
         <v>20</v>
       </c>
       <c r="L72" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="M72" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="O72" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="P72" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q72" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="R72" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="S72" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="T72" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
@@ -6295,10 +6346,10 @@
         <v>18</v>
       </c>
       <c r="F73" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G73" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H73" t="s">
         <v>28</v>
@@ -6307,28 +6358,28 @@
         <v>20</v>
       </c>
       <c r="J73" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K73" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="L73" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="M73" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O73" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="P73" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="R73" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="S73" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
@@ -6345,40 +6396,40 @@
         <v>18</v>
       </c>
       <c r="F74" t="s">
+        <v>471</v>
+      </c>
+      <c r="G74" t="s">
+        <v>472</v>
+      </c>
+      <c r="H74" t="s">
+        <v>97</v>
+      </c>
+      <c r="I74" t="s">
+        <v>22</v>
+      </c>
+      <c r="J74" t="s">
+        <v>22</v>
+      </c>
+      <c r="K74" t="s">
+        <v>473</v>
+      </c>
+      <c r="L74" t="s">
         <v>474</v>
       </c>
-      <c r="G74" t="s">
-        <v>475</v>
-      </c>
-      <c r="H74" t="s">
-        <v>100</v>
-      </c>
-      <c r="I74" t="s">
-        <v>22</v>
-      </c>
-      <c r="J74" t="s">
-        <v>22</v>
-      </c>
-      <c r="K74" t="s">
-        <v>476</v>
-      </c>
-      <c r="L74" t="s">
-        <v>477</v>
-      </c>
       <c r="M74" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="P74" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="Q74" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="R74" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="S74" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
@@ -6395,13 +6446,13 @@
         <v>18</v>
       </c>
       <c r="F75" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G75" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="H75" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I75" t="s">
         <v>22</v>
@@ -6413,28 +6464,28 @@
         <v>41</v>
       </c>
       <c r="L75" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="M75" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="O75" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="P75" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q75" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="R75" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="S75" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="T75" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
@@ -6451,10 +6502,10 @@
         <v>18</v>
       </c>
       <c r="F76" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G76" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="H76" t="s">
         <v>30</v>
@@ -6466,25 +6517,25 @@
         <v>22</v>
       </c>
       <c r="L76" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="M76" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N76" t="s">
+        <v>93</v>
+      </c>
+      <c r="O76" t="s">
+        <v>482</v>
+      </c>
+      <c r="P76" t="s">
+        <v>94</v>
+      </c>
+      <c r="R76" t="s">
+        <v>94</v>
+      </c>
+      <c r="T76" t="s">
         <v>96</v>
-      </c>
-      <c r="O76" t="s">
-        <v>485</v>
-      </c>
-      <c r="P76" t="s">
-        <v>97</v>
-      </c>
-      <c r="R76" t="s">
-        <v>97</v>
-      </c>
-      <c r="T76" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
@@ -6501,10 +6552,10 @@
         <v>18</v>
       </c>
       <c r="F77" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G77" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="H77" t="s">
         <v>19</v>
@@ -6513,34 +6564,34 @@
         <v>22</v>
       </c>
       <c r="J77" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K77" t="s">
         <v>41</v>
       </c>
       <c r="L77" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="M77" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="N77" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O77" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="P77" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="Q77" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="R77" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="S77" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
@@ -6557,10 +6608,10 @@
         <v>18</v>
       </c>
       <c r="F78" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="G78" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="H78" t="s">
         <v>24</v>
@@ -6569,22 +6620,22 @@
         <v>22</v>
       </c>
       <c r="J78" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L78" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="M78" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O78" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="P78" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="S78" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
@@ -6601,10 +6652,10 @@
         <v>18</v>
       </c>
       <c r="F79" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G79" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="H79" t="s">
         <v>30</v>
@@ -6616,25 +6667,25 @@
         <v>22</v>
       </c>
       <c r="K79" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L79" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="N79" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="O79" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="P79" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="R79" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="T79" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
@@ -6651,10 +6702,10 @@
         <v>18</v>
       </c>
       <c r="F80" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="G80" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H80" t="s">
         <v>30</v>
@@ -6669,22 +6720,22 @@
         <v>41</v>
       </c>
       <c r="L80" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="M80" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N80" t="s">
+        <v>93</v>
+      </c>
+      <c r="O80" t="s">
+        <v>497</v>
+      </c>
+      <c r="R80" t="s">
+        <v>107</v>
+      </c>
+      <c r="T80" t="s">
         <v>96</v>
-      </c>
-      <c r="O80" t="s">
-        <v>500</v>
-      </c>
-      <c r="R80" t="s">
-        <v>110</v>
-      </c>
-      <c r="T80" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
@@ -6701,43 +6752,43 @@
         <v>18</v>
       </c>
       <c r="F81" t="s">
+        <v>498</v>
+      </c>
+      <c r="G81" t="s">
+        <v>499</v>
+      </c>
+      <c r="H81" t="s">
+        <v>97</v>
+      </c>
+      <c r="I81" t="s">
+        <v>22</v>
+      </c>
+      <c r="J81" t="s">
+        <v>71</v>
+      </c>
+      <c r="K81" t="s">
+        <v>500</v>
+      </c>
+      <c r="L81" t="s">
         <v>501</v>
       </c>
-      <c r="G81" t="s">
+      <c r="M81" t="s">
+        <v>434</v>
+      </c>
+      <c r="N81" t="s">
+        <v>93</v>
+      </c>
+      <c r="O81" t="s">
         <v>502</v>
       </c>
-      <c r="H81" t="s">
-        <v>100</v>
-      </c>
-      <c r="I81" t="s">
-        <v>22</v>
-      </c>
-      <c r="J81" t="s">
-        <v>74</v>
-      </c>
-      <c r="K81" t="s">
-        <v>503</v>
-      </c>
-      <c r="L81" t="s">
-        <v>504</v>
-      </c>
-      <c r="M81" t="s">
-        <v>437</v>
-      </c>
-      <c r="N81" t="s">
-        <v>96</v>
-      </c>
-      <c r="O81" t="s">
-        <v>505</v>
-      </c>
       <c r="P81" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="Q81" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="R81" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
@@ -6754,10 +6805,10 @@
         <v>18</v>
       </c>
       <c r="F82" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G82" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="H82" t="s">
         <v>19</v>
@@ -6769,31 +6820,31 @@
         <v>22</v>
       </c>
       <c r="K82" t="s">
+        <v>505</v>
+      </c>
+      <c r="L82" t="s">
+        <v>506</v>
+      </c>
+      <c r="M82" t="s">
+        <v>507</v>
+      </c>
+      <c r="N82" t="s">
+        <v>94</v>
+      </c>
+      <c r="O82" t="s">
         <v>508</v>
       </c>
-      <c r="L82" t="s">
-        <v>509</v>
-      </c>
-      <c r="M82" t="s">
-        <v>510</v>
-      </c>
-      <c r="N82" t="s">
-        <v>97</v>
-      </c>
-      <c r="O82" t="s">
-        <v>511</v>
-      </c>
       <c r="P82" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="Q82" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="S82" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="T82" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
@@ -6810,10 +6861,10 @@
         <v>18</v>
       </c>
       <c r="F83" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G83" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H83" t="s">
         <v>30</v>
@@ -6825,28 +6876,28 @@
         <v>22</v>
       </c>
       <c r="K83" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="L83" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="N83" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O83" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="Q83" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="R83" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="S83" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="T83" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
@@ -6863,10 +6914,10 @@
         <v>18</v>
       </c>
       <c r="F84" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G84" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="H84" t="s">
         <v>28</v>
@@ -6875,34 +6926,34 @@
         <v>20</v>
       </c>
       <c r="J84" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K84" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="L84" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="M84" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N84" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O84" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="Q84" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="R84" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="S84" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="T84" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
@@ -6919,10 +6970,10 @@
         <v>18</v>
       </c>
       <c r="F85" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G85" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="H85" t="s">
         <v>30</v>
@@ -6931,34 +6982,34 @@
         <v>20</v>
       </c>
       <c r="J85" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K85" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="L85" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="M85" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="N85" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="O85" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="P85" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>132</v>
+      </c>
+      <c r="S85" t="s">
         <v>104</v>
       </c>
-      <c r="Q85" t="s">
-        <v>135</v>
-      </c>
-      <c r="S85" t="s">
-        <v>107</v>
-      </c>
       <c r="T85" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
@@ -6975,10 +7026,10 @@
         <v>18</v>
       </c>
       <c r="F86" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G86" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H86" t="s">
         <v>28</v>
@@ -6987,28 +7038,28 @@
         <v>20</v>
       </c>
       <c r="J86" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K86" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="L86" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="N86" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O86" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="P86" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Q86" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="T86" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
@@ -7025,10 +7076,10 @@
         <v>18</v>
       </c>
       <c r="F87" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G87" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="H87" t="s">
         <v>19</v>
@@ -7040,22 +7091,22 @@
         <v>22</v>
       </c>
       <c r="K87" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="L87" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="N87" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="Q87" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="R87" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="S87" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
@@ -7072,10 +7123,10 @@
         <v>18</v>
       </c>
       <c r="F88" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G88" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="H88" t="s">
         <v>19</v>
@@ -7087,25 +7138,25 @@
         <v>20</v>
       </c>
       <c r="K88" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="L88" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="N88" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O88" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="P88" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="S88" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T88" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
@@ -7122,10 +7173,10 @@
         <v>18</v>
       </c>
       <c r="F89" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="G89" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="H89" t="s">
         <v>28</v>
@@ -7134,28 +7185,28 @@
         <v>22</v>
       </c>
       <c r="J89" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K89" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="L89" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="N89" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O89" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="R89" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="S89" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="T89" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
@@ -7172,13 +7223,13 @@
         <v>18</v>
       </c>
       <c r="F90" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G90" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="H90" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I90" t="s">
         <v>20</v>
@@ -7187,34 +7238,34 @@
         <v>22</v>
       </c>
       <c r="K90" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="L90" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M90" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="N90" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="O90" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="P90" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q90" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R90" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="S90" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="T90" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
@@ -7231,10 +7282,10 @@
         <v>18</v>
       </c>
       <c r="F91" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="G91" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="H91" t="s">
         <v>30</v>
@@ -7246,34 +7297,34 @@
         <v>22</v>
       </c>
       <c r="K91" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="L91" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="M91" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="N91" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O91" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="P91" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="Q91" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="R91" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="S91" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="T91" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
@@ -7290,10 +7341,10 @@
         <v>18</v>
       </c>
       <c r="F92" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G92" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H92" t="s">
         <v>24</v>
@@ -7302,28 +7353,28 @@
         <v>20</v>
       </c>
       <c r="J92" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K92" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="L92" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="O92" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="Q92" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="R92" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="S92" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="T92" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
@@ -7340,10 +7391,10 @@
         <v>18</v>
       </c>
       <c r="F93" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="G93" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="H93" t="s">
         <v>28</v>
@@ -7352,28 +7403,28 @@
         <v>22</v>
       </c>
       <c r="J93" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K93" t="s">
         <v>40</v>
       </c>
       <c r="L93" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="M93" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N93" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O93" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="Q93" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="R93" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
@@ -7390,13 +7441,13 @@
         <v>18</v>
       </c>
       <c r="F94" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="G94" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="H94" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I94" t="s">
         <v>20</v>
@@ -7405,31 +7456,31 @@
         <v>20</v>
       </c>
       <c r="K94" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="L94" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="M94" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O94" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="P94" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="Q94" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R94" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="S94" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="T94" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
@@ -7446,10 +7497,10 @@
         <v>18</v>
       </c>
       <c r="F95" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G95" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H95" t="s">
         <v>19</v>
@@ -7461,22 +7512,22 @@
         <v>22</v>
       </c>
       <c r="K95" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="L95" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="N95" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O95" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="P95" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="T95" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
@@ -7493,10 +7544,10 @@
         <v>18</v>
       </c>
       <c r="F96" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G96" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="H96" t="s">
         <v>19</v>
@@ -7508,31 +7559,31 @@
         <v>22</v>
       </c>
       <c r="K96" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="L96" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="N96" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O96" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P96" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>94</v>
+      </c>
+      <c r="R96" t="s">
+        <v>147</v>
+      </c>
+      <c r="S96" t="s">
         <v>104</v>
       </c>
-      <c r="Q96" t="s">
-        <v>97</v>
-      </c>
-      <c r="R96" t="s">
-        <v>150</v>
-      </c>
-      <c r="S96" t="s">
-        <v>107</v>
-      </c>
       <c r="T96" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
@@ -7549,10 +7600,10 @@
         <v>18</v>
       </c>
       <c r="F97" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="G97" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="H97" t="s">
         <v>28</v>
@@ -7564,22 +7615,22 @@
         <v>20</v>
       </c>
       <c r="L97" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="N97" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O97" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="Q97" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="R97" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="S97" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
@@ -7596,10 +7647,10 @@
         <v>18</v>
       </c>
       <c r="F98" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="G98" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="H98" t="s">
         <v>19</v>
@@ -7608,34 +7659,34 @@
         <v>20</v>
       </c>
       <c r="J98" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K98" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="L98" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="M98" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="O98" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="P98" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q98" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="R98" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="S98" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T98" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
@@ -7652,10 +7703,10 @@
         <v>18</v>
       </c>
       <c r="F99" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G99" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="H99" t="s">
         <v>28</v>
@@ -7667,28 +7718,28 @@
         <v>22</v>
       </c>
       <c r="K99" t="s">
+        <v>585</v>
+      </c>
+      <c r="L99" t="s">
+        <v>586</v>
+      </c>
+      <c r="M99" t="s">
+        <v>587</v>
+      </c>
+      <c r="O99" t="s">
         <v>588</v>
       </c>
-      <c r="L99" t="s">
-        <v>589</v>
-      </c>
-      <c r="M99" t="s">
-        <v>590</v>
-      </c>
-      <c r="O99" t="s">
-        <v>591</v>
-      </c>
       <c r="P99" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Q99" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="R99" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="T99" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
@@ -7705,10 +7756,10 @@
         <v>18</v>
       </c>
       <c r="F100" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G100" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="H100" t="s">
         <v>30</v>
@@ -7720,22 +7771,22 @@
         <v>20</v>
       </c>
       <c r="L100" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="M100" t="s">
+        <v>167</v>
+      </c>
+      <c r="N100" t="s">
+        <v>196</v>
+      </c>
+      <c r="O100" t="s">
+        <v>592</v>
+      </c>
+      <c r="R100" t="s">
         <v>170</v>
       </c>
-      <c r="N100" t="s">
-        <v>199</v>
-      </c>
-      <c r="O100" t="s">
-        <v>595</v>
-      </c>
-      <c r="R100" t="s">
-        <v>173</v>
-      </c>
       <c r="T100" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
@@ -7752,13 +7803,13 @@
         <v>18</v>
       </c>
       <c r="F101" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G101" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H101" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I101" t="s">
         <v>22</v>
@@ -7767,19 +7818,19 @@
         <v>22</v>
       </c>
       <c r="L101" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="M101" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O101" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="P101" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q101" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
@@ -7796,10 +7847,10 @@
         <v>18</v>
       </c>
       <c r="F102" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="G102" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H102" t="s">
         <v>24</v>
@@ -7811,28 +7862,28 @@
         <v>22</v>
       </c>
       <c r="K102" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L102" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="M102" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="N102" t="s">
+        <v>93</v>
+      </c>
+      <c r="O102" t="s">
+        <v>600</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>113</v>
+      </c>
+      <c r="S102" t="s">
+        <v>127</v>
+      </c>
+      <c r="T102" t="s">
         <v>96</v>
-      </c>
-      <c r="O102" t="s">
-        <v>603</v>
-      </c>
-      <c r="Q102" t="s">
-        <v>116</v>
-      </c>
-      <c r="S102" t="s">
-        <v>130</v>
-      </c>
-      <c r="T102" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
@@ -7849,10 +7900,10 @@
         <v>18</v>
       </c>
       <c r="F103" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G103" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H103" t="s">
         <v>30</v>
@@ -7864,13 +7915,13 @@
         <v>22</v>
       </c>
       <c r="K103" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="L103" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="M103" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
@@ -7887,10 +7938,10 @@
         <v>18</v>
       </c>
       <c r="F104" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="G104" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H104" t="s">
         <v>24</v>
@@ -7905,19 +7956,19 @@
         <v>37</v>
       </c>
       <c r="L104" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="M104" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="O104" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="R104" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="S104" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -7928,10 +7979,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A021EA-029D-4E52-9D29-4D539B994A79}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7948,37 +7999,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="12" t="s">
-        <v>69</v>
+      <c r="I1" s="19" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B2" s="6">
         <v>6</v>
@@ -7990,7 +8041,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F2" s="6">
         <v>4</v>
@@ -8006,49 +8057,49 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="12">
         <v>2</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="12">
         <v>1</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="12">
         <v>0</v>
       </c>
-      <c r="E3" s="6">
-        <v>2</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12">
         <v>1</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="12">
         <v>1</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="12">
         <v>1</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="10">
         <v>0</v>
       </c>
       <c r="D4" s="6">
         <v>0</v>
       </c>
       <c r="E4" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
@@ -8064,31 +8115,31 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="12">
         <v>3</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="12">
         <v>2</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="12">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12">
         <v>2</v>
       </c>
-      <c r="F5" s="6">
-        <v>2</v>
-      </c>
-      <c r="G5" s="6">
+      <c r="G5" s="12">
         <v>1</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="12">
         <v>1</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="12">
         <v>4</v>
       </c>
     </row>
@@ -8099,14 +8150,14 @@
       <c r="B6" s="6">
         <v>3</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="10">
         <v>1</v>
       </c>
       <c r="D6" s="6">
         <v>2</v>
       </c>
       <c r="E6" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="6">
         <v>2</v>
@@ -8122,31 +8173,31 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="12">
         <v>1</v>
       </c>
       <c r="C7" s="13">
         <v>3</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="12">
         <v>2</v>
       </c>
-      <c r="E7" s="6">
-        <v>3</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12">
         <v>2</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="12">
         <v>1</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="12">
         <v>1</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="12">
         <v>4</v>
       </c>
     </row>
@@ -8157,14 +8208,14 @@
       <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="10">
         <v>3</v>
       </c>
       <c r="D8" s="6">
         <v>2</v>
       </c>
       <c r="E8" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" s="6">
         <v>2</v>
@@ -8180,275 +8231,219 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="11" t="s">
+      <c r="H9" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="15" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="E11" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="F11" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="G11" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="B12" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="11">
-        <v>2</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="11">
+      <c r="B15" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <v>44992</v>
       </c>
+      <c r="I19" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8462,7 +8457,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8494,13 +8489,13 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="D2" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -8508,13 +8503,13 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="D3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -8522,13 +8517,13 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
         <v>623</v>
       </c>
       <c r="D4" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -8536,10 +8531,10 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -8547,10 +8542,10 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -8558,10 +8553,10 @@
         <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -8569,10 +8564,10 @@
         <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C10" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -8580,10 +8575,10 @@
         <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -8591,10 +8586,10 @@
         <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C12" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -8602,10 +8597,10 @@
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C13" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -8613,10 +8608,10 @@
         <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C14" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -8624,13 +8619,13 @@
         <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C16" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="D16" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -8638,13 +8633,13 @@
         <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D17" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -8652,13 +8647,13 @@
         <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C19" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="D19" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -8666,13 +8661,13 @@
         <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="D20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -8680,13 +8675,13 @@
         <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -8694,13 +8689,13 @@
         <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -8708,13 +8703,13 @@
         <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C25" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="D25" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -8722,21 +8717,21 @@
         <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C26" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="D26" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
         <v>621</v>
@@ -8744,16 +8739,16 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C29" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="D29" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
   </sheetData>

--- a/Clinic Sign-Up Prototype_2.xlsx
+++ b/Clinic Sign-Up Prototype_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Desktop\Desktop\Clinics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9293A77D-C146-4E9D-98C4-8C4D9D61C7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBBF7CC-E1AA-4118-B090-7DB3E15E70A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="-120" windowWidth="27945" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="975" yWindow="-120" windowWidth="27945" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form1" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="626">
   <si>
     <t>ID</t>
   </si>
@@ -1929,52 +1929,55 @@
     <t>4/25 from 6-7:30 (CoH);No Dates Available / Not Interested;4/19 from 5-6:30 (Calvert);4/26 from 5-6:30 (Calvert);4/5 from 5:00-6:30 pm (Calvert)</t>
   </si>
   <si>
-    <t>Stephanie Sorenson,Phyllis Davis</t>
-  </si>
-  <si>
-    <t>John Sandy,Daniel Baker</t>
-  </si>
-  <si>
-    <t>John Sandy,David Taylor</t>
-  </si>
-  <si>
-    <t>Daniel Baker,John Sandy</t>
-  </si>
-  <si>
-    <t>John Sandy,Kenneth Neal,John Catchings,Sandra Valdez,Brenda Mcbride,Patrick Hooks</t>
-  </si>
-  <si>
-    <t>Javier Diclaudio,Michael Leatherwood</t>
-  </si>
-  <si>
-    <t>Kevin VanHorn,Kenneth Neal,Susan Tilford,Clarence Wilder</t>
-  </si>
-  <si>
-    <t>Kevin VanHorn,John Sandy,Jeremiah Lopez,Kenneth Neal,Rochelle Braithwaite</t>
-  </si>
-  <si>
-    <t>Kevin VanHorn,Crystal Daniel,John Sandy,John Catchings</t>
-  </si>
-  <si>
-    <t>John Sandy,Daniel Baker,Rochelle Braithwaite,Kenneth Neal</t>
-  </si>
-  <si>
-    <t>John Sandy,Jeremiah Lopez,Joseph Dodd,Mary Javier,Ronald Shaver,Waldo Gray</t>
-  </si>
-  <si>
-    <t>John Sandy,Crystal Daniel,Rochelle Braithwaite,Arthur Stockton,John Catchings,John Yates</t>
-  </si>
-  <si>
-    <t>David Taylor,Kevin VanHorn,Joseph Dodd,Gregory Forbis</t>
-  </si>
-  <si>
-    <t>John Sandy,Rochelle Braithwaite,Harry Villaman,Arthur Stockton,Sandra Valdez,Myra Martinez</t>
-  </si>
-  <si>
-    <t>John Sandy,Judy Salgado,Joseph Dodd,Rochelle Braithwaite,Arthur Stockton,John Catchings</t>
-  </si>
-  <si>
-    <t>Kenneth Neal,Clarence Wilder,Mary Javier,Ronald Shaver,Waldo Gray,David Whapham</t>
+    <t>John Sandy,John Yates,John Catchings,Rochelle Braithwaite,Arthur Stockton,Crystal Daniel</t>
+  </si>
+  <si>
+    <t>Stephanie Sorenson,Sean Richardson</t>
+  </si>
+  <si>
+    <t>John Sandy,Rochelle Braithwaite,Harry Villaman,Arthur Stockton,Myra Martinez,Sandra Valdez</t>
+  </si>
+  <si>
+    <t>John Sandy,Judy Salgado,John Catchings,Gerald Potter,Rochelle Braithwaite,Arthur Stockton</t>
+  </si>
+  <si>
+    <t>Kevin VanHorn,Helen Humphreys,John Sandy,Annemarie Coke,Holly Reed</t>
+  </si>
+  <si>
+    <t>Kevin VanHorn,John Sandy,Susan Tilford,Gregory Forbis,Arthur Stockton</t>
+  </si>
+  <si>
+    <t>Paul Meier,John Sandy</t>
+  </si>
+  <si>
+    <t>Arthur Stockton,Paul Meier</t>
+  </si>
+  <si>
+    <t>Arthur Stockton,John Sandy</t>
+  </si>
+  <si>
+    <t>Kevin VanHorn,John Sandy</t>
+  </si>
+  <si>
+    <t>John Sandy,Brenda Mcbride</t>
+  </si>
+  <si>
+    <t>Rochelle Braithwaite,Mary Javier,Kenneth Neal,John Sandy</t>
+  </si>
+  <si>
+    <t>Rochelle Braithwaite,Mary Javier,Gordon Garcia,Kenneth Neal</t>
+  </si>
+  <si>
+    <t>Waldo Gray,David Whapham,Brenda Mcbride,Ronald Shaver,Jeremiah Lopez,Joseph Dodd</t>
+  </si>
+  <si>
+    <t>Waldo Gray,Clarence Wilder,David Whapham,Ronald Shaver,Arthur Stockton,Mary Javier</t>
+  </si>
+  <si>
+    <t>Kevin VanHorn,David Taylor,Helen Humphreys,Joseph Dodd</t>
+  </si>
+  <si>
+    <t>Kevin VanHorn,Susan Tilford,Helen Humphreys,John Sandy</t>
   </si>
 </sst>
 </file>
@@ -2584,8 +2587,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7981,8 +7984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A021EA-029D-4E52-9D29-4D539B994A79}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8492,10 +8495,10 @@
         <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="D2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -8506,7 +8509,7 @@
         <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="D3" t="s">
         <v>546</v>
@@ -8520,10 +8523,10 @@
         <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="D4" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -8534,7 +8537,7 @@
         <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -8545,7 +8548,7 @@
         <v>99</v>
       </c>
       <c r="C7" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -8556,7 +8559,7 @@
         <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -8567,7 +8570,7 @@
         <v>161</v>
       </c>
       <c r="C10" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -8578,7 +8581,7 @@
         <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -8589,7 +8592,7 @@
         <v>119</v>
       </c>
       <c r="C12" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -8600,7 +8603,7 @@
         <v>115</v>
       </c>
       <c r="C13" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -8611,7 +8614,7 @@
         <v>103</v>
       </c>
       <c r="C14" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -8622,10 +8625,7 @@
         <v>109</v>
       </c>
       <c r="C16" t="s">
-        <v>617</v>
-      </c>
-      <c r="D16" t="s">
-        <v>334</v>
+        <v>618</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -8636,10 +8636,7 @@
         <v>101</v>
       </c>
       <c r="C17" t="s">
-        <v>613</v>
-      </c>
-      <c r="D17" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -8650,7 +8647,7 @@
         <v>113</v>
       </c>
       <c r="C19" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="D19" t="s">
         <v>163</v>
@@ -8664,10 +8661,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="D20" t="s">
-        <v>191</v>
+        <v>352</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -8678,7 +8675,7 @@
         <v>95</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>536</v>
       </c>
       <c r="D22" t="s">
         <v>427</v>
@@ -8692,7 +8689,7 @@
         <v>107</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>536</v>
       </c>
       <c r="D23" t="s">
         <v>156</v>
@@ -8706,10 +8703,10 @@
         <v>96</v>
       </c>
       <c r="C25" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="D25" t="s">
-        <v>403</v>
+        <v>440</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -8720,10 +8717,10 @@
         <v>104</v>
       </c>
       <c r="C26" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D26" t="s">
-        <v>412</v>
+        <v>440</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -8734,7 +8731,7 @@
         <v>104</v>
       </c>
       <c r="C28" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -8745,10 +8742,10 @@
         <v>96</v>
       </c>
       <c r="C29" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="D29" t="s">
-        <v>609</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -8798,9 +8795,9 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<scriptIds xmlns="http://schemas.microsoft.com/office/extensibility/maker/v1.0" id="script-ids-node-id">
+  <scriptId id="ms-officescript%3A%2F%2Fonedrive_business_itemlink%2F01LG763KNURG5YXEOIGVFYKVI5JQCZG47R:ms-officescript%3A%2F%2Fonedrive_business_sharinglink%2Fu!aHR0cHM6Ly8zNjV1dHNvdXRod2VzdGVybi1teS5zaGFyZXBvaW50LmNvbS86dTovZy9wZXJzb25hbC9hYmlnYWlsX2xld2lzX3V0c291dGh3ZXN0ZXJuX2VkdS9FYlNKdTR1UnlEVkxoVlVkVEFXVGNfRUJ4RXpaczgyNU5ndEE5M1hkTkRxQlpn"/>
+</scriptIds>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8969,9 +8966,9 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<scriptIds xmlns="http://schemas.microsoft.com/office/extensibility/maker/v1.0" id="script-ids-node-id">
-  <scriptId id="ms-officescript%3A%2F%2Fonedrive_business_itemlink%2F01LG763KNURG5YXEOIGVFYKVI5JQCZG47R:ms-officescript%3A%2F%2Fonedrive_business_sharinglink%2Fu!aHR0cHM6Ly8zNjV1dHNvdXRod2VzdGVybi1teS5zaGFyZXBvaW50LmNvbS86dTovZy9wZXJzb25hbC9hYmlnYWlsX2xld2lzX3V0c291dGh3ZXN0ZXJuX2VkdS9FYlNKdTR1UnlEVkxoVlVkVEFXVGNfRUJ4RXpaczgyNU5ndEE5M1hkTkRxQlpn"/>
-</scriptIds>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8983,18 +8980,9 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FA16BEB-0523-4F04-9A45-82DF970EB511}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5B9B7CB-CCDD-4B54-905C-F8BE57B4D8CD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="51635bf0-3289-44e9-95c5-5505efa9427e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="d0eb518e-69e0-47b9-b413-7592cd52f95f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/extensibility/maker/v1.0"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9019,9 +9007,18 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5B9B7CB-CCDD-4B54-905C-F8BE57B4D8CD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FA16BEB-0523-4F04-9A45-82DF970EB511}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/extensibility/maker/v1.0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="51635bf0-3289-44e9-95c5-5505efa9427e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="d0eb518e-69e0-47b9-b413-7592cd52f95f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Clinic Sign-Up Prototype_2.xlsx
+++ b/Clinic Sign-Up Prototype_2.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Desktop\Desktop\Clinics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBBF7CC-E1AA-4118-B090-7DB3E15E70A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F86A42A-1519-44F2-BBAB-F9833821E51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="-120" windowWidth="27945" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="975" yWindow="-120" windowWidth="27945" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form1" sheetId="1" r:id="rId1"/>
     <sheet name="Prompt" sheetId="3" r:id="rId2"/>
-    <sheet name="Results" sheetId="4" r:id="rId3"/>
-    <sheet name="_56F9DC9755BA473782653E2940F9" sheetId="2" state="veryHidden" r:id="rId4"/>
+    <sheet name="_56F9DC9755BA473782653E2940F9" sheetId="2" state="veryHidden" r:id="rId3"/>
+    <sheet name="Results" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_56F9DC9755BA473782653E2940F9FormId">"lYZBnaxxMUy1ssGWyOw8ihhTvVp3zUVPnW4O8yIiXk1UM09ES05DNVdMVEc2Q1FGWDZYNExaNUxKUCQlQCN0PWcu"</definedName>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="709">
   <si>
     <t>ID</t>
   </si>
@@ -1929,55 +1929,304 @@
     <t>4/25 from 6-7:30 (CoH);No Dates Available / Not Interested;4/19 from 5-6:30 (Calvert);4/26 from 5-6:30 (Calvert);4/5 from 5:00-6:30 pm (Calvert)</t>
   </si>
   <si>
-    <t>John Sandy,John Yates,John Catchings,Rochelle Braithwaite,Arthur Stockton,Crystal Daniel</t>
-  </si>
-  <si>
-    <t>Stephanie Sorenson,Sean Richardson</t>
-  </si>
-  <si>
-    <t>John Sandy,Rochelle Braithwaite,Harry Villaman,Arthur Stockton,Myra Martinez,Sandra Valdez</t>
-  </si>
-  <si>
-    <t>John Sandy,Judy Salgado,John Catchings,Gerald Potter,Rochelle Braithwaite,Arthur Stockton</t>
-  </si>
-  <si>
-    <t>Kevin VanHorn,Helen Humphreys,John Sandy,Annemarie Coke,Holly Reed</t>
-  </si>
-  <si>
-    <t>Kevin VanHorn,John Sandy,Susan Tilford,Gregory Forbis,Arthur Stockton</t>
-  </si>
-  <si>
-    <t>Paul Meier,John Sandy</t>
-  </si>
-  <si>
-    <t>Arthur Stockton,Paul Meier</t>
-  </si>
-  <si>
-    <t>Arthur Stockton,John Sandy</t>
-  </si>
-  <si>
-    <t>Kevin VanHorn,John Sandy</t>
-  </si>
-  <si>
-    <t>John Sandy,Brenda Mcbride</t>
-  </si>
-  <si>
-    <t>Rochelle Braithwaite,Mary Javier,Kenneth Neal,John Sandy</t>
-  </si>
-  <si>
-    <t>Rochelle Braithwaite,Mary Javier,Gordon Garcia,Kenneth Neal</t>
-  </si>
-  <si>
-    <t>Waldo Gray,David Whapham,Brenda Mcbride,Ronald Shaver,Jeremiah Lopez,Joseph Dodd</t>
-  </si>
-  <si>
-    <t>Waldo Gray,Clarence Wilder,David Whapham,Ronald Shaver,Arthur Stockton,Mary Javier</t>
-  </si>
-  <si>
-    <t>Kevin VanHorn,David Taylor,Helen Humphreys,Joseph Dodd</t>
-  </si>
-  <si>
-    <t>Kevin VanHorn,Susan Tilford,Helen Humphreys,John Sandy</t>
+    <t>Details_Volunteer</t>
+  </si>
+  <si>
+    <t>Details_Translators</t>
+  </si>
+  <si>
+    <t>Stephanie Sorenson, Sean Richardson</t>
+  </si>
+  <si>
+    <t>John Sandy, Judy Salgado, John Catchings, Gerald Potter, Rochelle Braithwaite, Arthur Stockton</t>
+  </si>
+  <si>
+    <t>Kevin VanHorn, John Sandy, Susan Tilford, Gregory Forbis, Arthur Stockton</t>
+  </si>
+  <si>
+    <t>Paul Meier, John Sandy</t>
+  </si>
+  <si>
+    <t>Arthur Stockton, Paul Meier</t>
+  </si>
+  <si>
+    <t>Arthur Stockton, John Sandy</t>
+  </si>
+  <si>
+    <t>Joe Kittelson, Melissa Thompson</t>
+  </si>
+  <si>
+    <t>Michele Slade, Michael Leatherwood</t>
+  </si>
+  <si>
+    <t>John Sandy, Brenda Mcbride</t>
+  </si>
+  <si>
+    <t>Michael Leatherwood, Javier Diclaudio</t>
+  </si>
+  <si>
+    <t>Jim Lewis, Glen Riggs, Michele Slade</t>
+  </si>
+  <si>
+    <t>Rochelle Braithwaite, Mary Javier, Gordon Garcia, Kenneth Neal</t>
+  </si>
+  <si>
+    <t>Glen Riggs, Michele Slade, Lester Mcdonald, Gwendolyn Mcvay, Timothy Calloway</t>
+  </si>
+  <si>
+    <t>Patricia Lee, Percy Bubier, Karen Egnew</t>
+  </si>
+  <si>
+    <t>Sean Richardson, Patricia Lee, Jim Lewis</t>
+  </si>
+  <si>
+    <t>Gwendolyn Mcvay, Patricia Lee, Jim Lewis</t>
+  </si>
+  <si>
+    <t>Kevin VanHorn, David Taylor, Helen Humphreys, Joseph Dodd</t>
+  </si>
+  <si>
+    <t>Waitlist-General</t>
+  </si>
+  <si>
+    <t>Waitlist-Translator</t>
+  </si>
+  <si>
+    <t>Details_WaitlistGeneral</t>
+  </si>
+  <si>
+    <t>Details_WaitlistTranslator</t>
+  </si>
+  <si>
+    <t>Joseph Dodd, Sandra Valdez</t>
+  </si>
+  <si>
+    <t>Sandra Valdez, Jeremiah Lopez, Rochelle Braithwaite, Mary Javier, Kenneth Neal</t>
+  </si>
+  <si>
+    <t>Daniel Baker, Patrick Hooks, Brenda Mcbride, John Yates</t>
+  </si>
+  <si>
+    <t>John Sandy, Patrick Hooks, Brenda Mcbride, David Taylor, John Yates, Susan Tilford</t>
+  </si>
+  <si>
+    <t>John Sandy, Daniel Baker, Mary Javier, Patrick Hooks, David Taylor, Susan Tilford</t>
+  </si>
+  <si>
+    <t>Daniel Baker, Patrick Hooks, Brenda Mcbride</t>
+  </si>
+  <si>
+    <t>Daniel Baker, Patrick Hooks</t>
+  </si>
+  <si>
+    <t>Kenneth Neal, Patrick Hooks, John Catchings, Sandra Valdez</t>
+  </si>
+  <si>
+    <t>Rosa Reyes, John Sandy, Arthur Stockton, Pedro Ware, Daniel Baker, Holly Reed</t>
+  </si>
+  <si>
+    <t>Rochelle Braithwaite, Shelby Boyd, Gordon Garcia, John Sandy, Clarence Wilder, Patrick Hooks</t>
+  </si>
+  <si>
+    <t>Rochelle Braithwaite, John Sandy, Patrick Hooks</t>
+  </si>
+  <si>
+    <t>Stephanie Sorenson[5]-MS3, Sean Richardson[6][EL]-MS1</t>
+  </si>
+  <si>
+    <t>Sandra Valdez[8]-MS1</t>
+  </si>
+  <si>
+    <t>Phyllis Davis[7][EL]-MS2</t>
+  </si>
+  <si>
+    <t>Sean Richardson[6][EL]-MS1</t>
+  </si>
+  <si>
+    <t>John Sandy[1][EL]-MS4, Judy Salgado[1][EL]-MS4, John Catchings[2][EL]-MS2, Gerald Potter[2]-MS4, Rochelle Braithwaite[3][EL]-MS4, Arthur Stockton[6]-MS2</t>
+  </si>
+  <si>
+    <t>Joseph Dodd[7][EL]-MS1, Sandra Valdez[8]-MS1</t>
+  </si>
+  <si>
+    <t>Kevin VanHorn[1][EL]-MS4, John Sandy[2][EL]-MS4, Susan Tilford[2][EL]-MS1, Gregory Forbis[2]-MS0, Arthur Stockton[3]-MS2</t>
+  </si>
+  <si>
+    <t>Sandra Valdez[4]-MS1, Jeremiah Lopez[5][EL]-MS4, Rochelle Braithwaite[7][EL]-MS4, Mary Javier[7][EL]-MS2, Kenneth Neal[7]-MS0</t>
+  </si>
+  <si>
+    <t>Paul Meier[2][EL]-MS2, John Sandy[3][EL]-MS4</t>
+  </si>
+  <si>
+    <t>Daniel Baker[3][EL]-MS4, Patrick Hooks[3]-MS2, Brenda Mcbride[5]-MS2, John Yates[8]-MS4</t>
+  </si>
+  <si>
+    <t>Arthur Stockton[1]-MS2, Paul Meier[2][EL]-MS2</t>
+  </si>
+  <si>
+    <t>John Sandy[3][EL]-MS4, Patrick Hooks[3]-MS2, Brenda Mcbride[5]-MS2, David Taylor[5][EL]-MS1, John Yates[8]-MS4, Susan Tilford[8][EL]-MS1</t>
+  </si>
+  <si>
+    <t>Jim Lewis[7][EL]-MS3</t>
+  </si>
+  <si>
+    <t>John Sandy[3][EL]-MS4, Daniel Baker[3][EL]-MS4, Mary Javier[3][EL]-MS2, Patrick Hooks[3]-MS2, David Taylor[5][EL]-MS1, Susan Tilford[8][EL]-MS1</t>
+  </si>
+  <si>
+    <t>Joe Kittelson[5]-MS4</t>
+  </si>
+  <si>
+    <t>Arthur Stockton[1]-MS2, John Sandy[3][EL]-MS4</t>
+  </si>
+  <si>
+    <t>Daniel Baker[3][EL]-MS4, Patrick Hooks[3]-MS2, Brenda Mcbride[5]-MS2</t>
+  </si>
+  <si>
+    <t>Joe Kittelson[5]-MS4, Melissa Thompson[7][EL]-MS2</t>
+  </si>
+  <si>
+    <t>Daniel Baker[3][EL]-MS4, Patrick Hooks[3]-MS2</t>
+  </si>
+  <si>
+    <t>Michele Slade[5][EL]-MS4, Michael Leatherwood[8][EL]-MS0</t>
+  </si>
+  <si>
+    <t>Leanna Hill[5][EL]-MS0</t>
+  </si>
+  <si>
+    <t>John Sandy[4][EL]-MS4, Brenda Mcbride[4]-MS2</t>
+  </si>
+  <si>
+    <t>Kenneth Neal[5]-MS0, Patrick Hooks[6]-MS2, John Catchings[7][EL]-MS2, Sandra Valdez[7]-MS1</t>
+  </si>
+  <si>
+    <t>Michael Leatherwood[6][EL]-MS0, Javier Diclaudio[7][EL]-MS0</t>
+  </si>
+  <si>
+    <t>Keith Ward[1]-MS3</t>
+  </si>
+  <si>
+    <t>Jim Lewis[4][EL]-MS3, Glen Riggs[5]-MS2, Michele Slade[6][EL]-MS4</t>
+  </si>
+  <si>
+    <t>Rochelle Braithwaite[1][EL]-MS4, Mary Javier[1][EL]-MS2, Gordon Garcia[1]-MS0, Kenneth Neal[3]-MS0</t>
+  </si>
+  <si>
+    <t>Robert Riddle[1]-MS1</t>
+  </si>
+  <si>
+    <t>Rosa Reyes[3]-MS0, John Sandy[5][EL]-MS4, Arthur Stockton[7]-MS2, Pedro Ware[7][EL]-MS4, Daniel Baker[8][EL]-MS4, Holly Reed[8]-MS4</t>
+  </si>
+  <si>
+    <t>Glen Riggs[5]-MS2, Michele Slade[6][EL]-MS4, Lester Mcdonald[6]-MS3, Gwendolyn Mcvay[6]-MS0, Timothy Calloway[8][EL]-MS3</t>
+  </si>
+  <si>
+    <t>Judy Cooper[3][EL]-MS4</t>
+  </si>
+  <si>
+    <t>Karen Egnew[7][EL]-MS4</t>
+  </si>
+  <si>
+    <t>Rochelle Braithwaite[4][EL]-MS4, Shelby Boyd[4][EL]-MS2, Gordon Garcia[5]-MS0, John Sandy[6][EL]-MS4, Clarence Wilder[7]-MS2, Patrick Hooks[7]-MS2</t>
+  </si>
+  <si>
+    <t>William Cauley[4][EL]-MS0</t>
+  </si>
+  <si>
+    <t>Rochelle Braithwaite[4][EL]-MS4, John Sandy[6][EL]-MS4, Patrick Hooks[7]-MS2</t>
+  </si>
+  <si>
+    <t>Patricia Lee[5]-MS1, Percy Bubier[6]-MS1, Karen Egnew[7][EL]-MS4</t>
+  </si>
+  <si>
+    <t>Heather Favorite[4]-MS0</t>
+  </si>
+  <si>
+    <t>Sean Richardson[7][EL]-MS1, Patricia Lee[8]-MS1, Jim Lewis[8][EL]-MS3</t>
+  </si>
+  <si>
+    <t>Gordon Garcia[8]-MS0</t>
+  </si>
+  <si>
+    <t>Gwendolyn Mcvay[4]-MS0, Patricia Lee[8]-MS1, Jim Lewis[8][EL]-MS3</t>
+  </si>
+  <si>
+    <t>Kevin VanHorn[3][EL]-MS4, David Taylor[3][EL]-MS1, Helen Humphreys[5][EL]-MS4, Joseph Dodd[6][EL]-MS1</t>
+  </si>
+  <si>
+    <t>Phyllis Davis[8][EL]-MS2</t>
+  </si>
+  <si>
+    <t>John Sandy, John Catchings, Arthur Stockton, Crystal Daniel, John Yates, Rochelle Braithwaite</t>
+  </si>
+  <si>
+    <t>John Sandy[1][EL]-MS4, John Catchings[2][EL]-MS2, Arthur Stockton[6]-MS2, Crystal Daniel[7][EL]-MS2, John Yates[1]-MS4, Rochelle Braithwaite[3][EL]-MS4</t>
+  </si>
+  <si>
+    <t>Harry Villaman, John Sandy, Rochelle Braithwaite, Arthur Stockton, Myra Martinez, Sandra Valdez</t>
+  </si>
+  <si>
+    <t>Harry Villaman[6]-MS0, John Sandy[1][EL]-MS4, Rochelle Braithwaite[3][EL]-MS4, Arthur Stockton[6]-MS2, Myra Martinez[8][EL]-MS0, Sandra Valdez[8]-MS1</t>
+  </si>
+  <si>
+    <t>Kevin VanHorn, Helen Humphreys, John Sandy, John Catchings, Sandra Valdez</t>
+  </si>
+  <si>
+    <t>Annemarie Coke, Holly Reed, Jeremiah Lopez, Rochelle Braithwaite, Mary Javier, Kenneth Neal</t>
+  </si>
+  <si>
+    <t>Kevin VanHorn[1][EL]-MS4, Helen Humphreys[1][EL]-MS4, John Sandy[2][EL]-MS4, John Catchings[4][EL]-MS2, Sandra Valdez[4]-MS1</t>
+  </si>
+  <si>
+    <t>Annemarie Coke[3][EL]-MS3, Holly Reed[3]-MS4, Jeremiah Lopez[5][EL]-MS4, Rochelle Braithwaite[7][EL]-MS4, Mary Javier[7][EL]-MS2, Kenneth Neal[7]-MS0</t>
+  </si>
+  <si>
+    <t>Kevin VanHorn, Crystal Daniel</t>
+  </si>
+  <si>
+    <t>John Sandy, John Catchings</t>
+  </si>
+  <si>
+    <t>Kevin VanHorn[2][EL]-MS4, Crystal Daniel[4][EL]-MS2</t>
+  </si>
+  <si>
+    <t>John Sandy[4][EL]-MS4, John Catchings[7][EL]-MS2</t>
+  </si>
+  <si>
+    <t>Rochelle Braithwaite, Mary Javier, John Sandy, John Catchings</t>
+  </si>
+  <si>
+    <t>Kenneth Neal, Arthur Stockton, Pedro Ware, Daniel Baker, Holly Reed</t>
+  </si>
+  <si>
+    <t>Rochelle Braithwaite[1][EL]-MS4, Mary Javier[1][EL]-MS2, John Sandy[5][EL]-MS4, John Catchings[5][EL]-MS2</t>
+  </si>
+  <si>
+    <t>Kenneth Neal[3]-MS0, Arthur Stockton[7]-MS2, Pedro Ware[7][EL]-MS4, Daniel Baker[8][EL]-MS4, Holly Reed[8]-MS4</t>
+  </si>
+  <si>
+    <t>Jeremiah Lopez, Helen Humphreys, Waldo Gray, David Whapham, Brenda Mcbride, Ronald Shaver</t>
+  </si>
+  <si>
+    <t>Joseph Dodd, Mary Javier, Kenneth Neal</t>
+  </si>
+  <si>
+    <t>Jeremiah Lopez[3][EL]-MS4, Helen Humphreys[7][EL]-MS4, Waldo Gray[2]-MS1, David Whapham[2]-MS2, Brenda Mcbride[2]-MS2, Ronald Shaver[3]-MS3</t>
+  </si>
+  <si>
+    <t>Joseph Dodd[5][EL]-MS1, Mary Javier[5][EL]-MS2, Kenneth Neal[8]-MS0</t>
+  </si>
+  <si>
+    <t>Waldo Gray, Clarence Wilder, Ronald Shaver, Kenneth Neal, David Whapham, Mary Javier</t>
+  </si>
+  <si>
+    <t>Waldo Gray[2]-MS1, Clarence Wilder[2]-MS2, Ronald Shaver[3]-MS3, Kenneth Neal[8]-MS0, David Whapham[2]-MS2, Mary Javier[5][EL]-MS2</t>
+  </si>
+  <si>
+    <t>Kevin VanHorn, Susan Tilford, John Sandy</t>
+  </si>
+  <si>
+    <t>Kevin VanHorn[3][EL]-MS4, Susan Tilford[4][EL]-MS1, John Sandy[7][EL]-MS4</t>
   </si>
 </sst>
 </file>
@@ -2181,7 +2430,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="22" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -2239,13 +2488,54 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2262,6 +2552,25 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Abby Lewis" id="{C6176873-3DD2-4664-8BCC-1D98DDF8B11C}" userId="S::Abigail.Lewis@UTSouthwestern.edu::46f91e9c-fd23-4f41-9785-b2f10b8d287f" providerId="AD"/>
 </personList>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{129FA3A9-BD6A-43A7-967D-34493BA52639}" name="Table3" displayName="Table3" ref="A1:J30" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:J30" xr:uid="{129FA3A9-BD6A-43A7-967D-34493BA52639}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{495AAC11-C051-4ACC-80A7-911071B7FCA9}" name="Clinic" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{378AC0EF-94FB-46CD-8E75-874B87A75966}" name="Date" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{CF921308-3943-4EAD-A42C-AC7739C411C3}" name="Volunteers" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{964DF9F4-49A2-40D7-B6C9-ADFF5BFE19DC}" name="Translators" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{4DE0C122-11BD-436E-9472-D3E902603D6E}" name="Waitlist-General" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{3562717B-3712-445C-93A3-B86ACAF2DE2F}" name="Waitlist-Translator" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{289DA763-B416-4F7E-B71D-CBA18E38D2A0}" name="Details_Volunteer" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{821FAFF1-1816-438F-9444-2423D26E38B1}" name="Details_Translators" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{3CBA062C-5253-48CD-8DD5-205FF2FBB10A}" name="Details_WaitlistGeneral" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{8B0781DE-2DBC-470C-8837-A642E83797A5}" name="Details_WaitlistTranslator" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2587,8 +2896,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7984,8 +8293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A021EA-029D-4E52-9D29-4D539B994A79}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8456,304 +8765,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{850E92BF-6AEA-409D-8BE1-76509B045D9B}">
-  <dimension ref="A1:D29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="34.85546875" customWidth="1"/>
-    <col min="3" max="3" width="80.28515625" customWidth="1"/>
-    <col min="4" max="4" width="42" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" t="s">
-        <v>609</v>
-      </c>
-      <c r="D2" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" t="s">
-        <v>611</v>
-      </c>
-      <c r="D3" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" t="s">
-        <v>612</v>
-      </c>
-      <c r="D4" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C10" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" t="s">
-        <v>620</v>
-      </c>
-      <c r="D19" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" t="s">
-        <v>621</v>
-      </c>
-      <c r="D20" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" t="s">
-        <v>536</v>
-      </c>
-      <c r="D22" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C23" t="s">
-        <v>536</v>
-      </c>
-      <c r="D23" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" t="s">
-        <v>622</v>
-      </c>
-      <c r="D25" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" t="s">
-        <v>623</v>
-      </c>
-      <c r="D26" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" t="s">
-        <v>625</v>
-      </c>
-      <c r="D29" t="s">
-        <v>503</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:A3"/>
@@ -8785,6 +8796,754 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C53F42-3A8C-4FFB-9E26-236D3EB50430}">
+  <dimension ref="A1:J30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32" style="23" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="76" style="23" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" style="23" customWidth="1"/>
+    <col min="5" max="5" width="88.85546875" style="23" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" style="23" customWidth="1"/>
+    <col min="7" max="7" width="98.7109375" style="23" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="23" customWidth="1"/>
+    <col min="9" max="9" width="97.140625" style="23" customWidth="1"/>
+    <col min="10" max="10" width="106.85546875" style="23" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
+        <v>628</v>
+      </c>
+      <c r="F1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G1" t="s">
+        <v>609</v>
+      </c>
+      <c r="H1" t="s">
+        <v>610</v>
+      </c>
+      <c r="I1" t="s">
+        <v>630</v>
+      </c>
+      <c r="J1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s">
+        <v>685</v>
+      </c>
+      <c r="D2" t="s">
+        <v>611</v>
+      </c>
+      <c r="E2" t="s">
+        <v>518</v>
+      </c>
+      <c r="F2" t="s">
+        <v>503</v>
+      </c>
+      <c r="G2" t="s">
+        <v>686</v>
+      </c>
+      <c r="H2" t="s">
+        <v>643</v>
+      </c>
+      <c r="I2" t="s">
+        <v>644</v>
+      </c>
+      <c r="J2" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>687</v>
+      </c>
+      <c r="D3" t="s">
+        <v>546</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3" t="s">
+        <v>688</v>
+      </c>
+      <c r="H3" t="s">
+        <v>646</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s">
+        <v>612</v>
+      </c>
+      <c r="D4" t="s">
+        <v>611</v>
+      </c>
+      <c r="E4" t="s">
+        <v>632</v>
+      </c>
+      <c r="F4" t="s">
+        <v>503</v>
+      </c>
+      <c r="G4" t="s">
+        <v>647</v>
+      </c>
+      <c r="H4" t="s">
+        <v>643</v>
+      </c>
+      <c r="I4" t="s">
+        <v>648</v>
+      </c>
+      <c r="J4" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" t="s">
+        <v>689</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6" t="s">
+        <v>690</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6" t="s">
+        <v>691</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6" t="s">
+        <v>692</v>
+      </c>
+      <c r="J6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" t="s">
+        <v>613</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7" t="s">
+        <v>633</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7" t="s">
+        <v>649</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7" t="s">
+        <v>650</v>
+      </c>
+      <c r="J7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" t="s">
+        <v>614</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9" t="s">
+        <v>634</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9" t="s">
+        <v>651</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9" t="s">
+        <v>652</v>
+      </c>
+      <c r="J9"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" t="s">
+        <v>615</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10" t="s">
+        <v>635</v>
+      </c>
+      <c r="F10" t="s">
+        <v>403</v>
+      </c>
+      <c r="G10" t="s">
+        <v>653</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10" t="s">
+        <v>654</v>
+      </c>
+      <c r="J10" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" t="s">
+        <v>615</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11" t="s">
+        <v>636</v>
+      </c>
+      <c r="F11" t="s">
+        <v>289</v>
+      </c>
+      <c r="G11" t="s">
+        <v>653</v>
+      </c>
+      <c r="H11"/>
+      <c r="I11" t="s">
+        <v>656</v>
+      </c>
+      <c r="J11" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" t="s">
+        <v>616</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12" t="s">
+        <v>637</v>
+      </c>
+      <c r="F12" t="s">
+        <v>617</v>
+      </c>
+      <c r="G12" t="s">
+        <v>658</v>
+      </c>
+      <c r="H12"/>
+      <c r="I12" t="s">
+        <v>659</v>
+      </c>
+      <c r="J12" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" t="s">
+        <v>614</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13" t="s">
+        <v>638</v>
+      </c>
+      <c r="F13" t="s">
+        <v>289</v>
+      </c>
+      <c r="G13" t="s">
+        <v>651</v>
+      </c>
+      <c r="H13"/>
+      <c r="I13" t="s">
+        <v>661</v>
+      </c>
+      <c r="J13" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" t="s">
+        <v>616</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14" t="s">
+        <v>638</v>
+      </c>
+      <c r="F14" t="s">
+        <v>618</v>
+      </c>
+      <c r="G14" t="s">
+        <v>658</v>
+      </c>
+      <c r="H14"/>
+      <c r="I14" t="s">
+        <v>661</v>
+      </c>
+      <c r="J14" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" t="s">
+        <v>693</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16" t="s">
+        <v>694</v>
+      </c>
+      <c r="F16" t="s">
+        <v>334</v>
+      </c>
+      <c r="G16" t="s">
+        <v>695</v>
+      </c>
+      <c r="H16"/>
+      <c r="I16" t="s">
+        <v>696</v>
+      </c>
+      <c r="J16" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" t="s">
+        <v>619</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17" t="s">
+        <v>639</v>
+      </c>
+      <c r="F17" t="s">
+        <v>620</v>
+      </c>
+      <c r="G17" t="s">
+        <v>664</v>
+      </c>
+      <c r="H17"/>
+      <c r="I17" t="s">
+        <v>665</v>
+      </c>
+      <c r="J17" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" t="s">
+        <v>697</v>
+      </c>
+      <c r="D19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" t="s">
+        <v>698</v>
+      </c>
+      <c r="F19" t="s">
+        <v>621</v>
+      </c>
+      <c r="G19" t="s">
+        <v>699</v>
+      </c>
+      <c r="H19" t="s">
+        <v>667</v>
+      </c>
+      <c r="I19" t="s">
+        <v>700</v>
+      </c>
+      <c r="J19" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" t="s">
+        <v>622</v>
+      </c>
+      <c r="D20" t="s">
+        <v>352</v>
+      </c>
+      <c r="E20" t="s">
+        <v>640</v>
+      </c>
+      <c r="F20" t="s">
+        <v>623</v>
+      </c>
+      <c r="G20" t="s">
+        <v>669</v>
+      </c>
+      <c r="H20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I20" t="s">
+        <v>671</v>
+      </c>
+      <c r="J20" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" t="s">
+        <v>536</v>
+      </c>
+      <c r="D22" t="s">
+        <v>427</v>
+      </c>
+      <c r="E22" t="s">
+        <v>641</v>
+      </c>
+      <c r="F22"/>
+      <c r="G22" t="s">
+        <v>673</v>
+      </c>
+      <c r="H22" t="s">
+        <v>674</v>
+      </c>
+      <c r="I22" t="s">
+        <v>675</v>
+      </c>
+      <c r="J22"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" t="s">
+        <v>536</v>
+      </c>
+      <c r="D23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" t="s">
+        <v>642</v>
+      </c>
+      <c r="F23" t="s">
+        <v>624</v>
+      </c>
+      <c r="G23" t="s">
+        <v>673</v>
+      </c>
+      <c r="H23" t="s">
+        <v>676</v>
+      </c>
+      <c r="I23" t="s">
+        <v>677</v>
+      </c>
+      <c r="J23" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" t="s">
+        <v>701</v>
+      </c>
+      <c r="D25" t="s">
+        <v>440</v>
+      </c>
+      <c r="E25" t="s">
+        <v>702</v>
+      </c>
+      <c r="F25" t="s">
+        <v>625</v>
+      </c>
+      <c r="G25" t="s">
+        <v>703</v>
+      </c>
+      <c r="H25" t="s">
+        <v>679</v>
+      </c>
+      <c r="I25" t="s">
+        <v>704</v>
+      </c>
+      <c r="J25" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" t="s">
+        <v>705</v>
+      </c>
+      <c r="D26" t="s">
+        <v>440</v>
+      </c>
+      <c r="E26" t="s">
+        <v>560</v>
+      </c>
+      <c r="F26" t="s">
+        <v>626</v>
+      </c>
+      <c r="G26" t="s">
+        <v>706</v>
+      </c>
+      <c r="H26" t="s">
+        <v>679</v>
+      </c>
+      <c r="I26" t="s">
+        <v>681</v>
+      </c>
+      <c r="J26" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" t="s">
+        <v>627</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28" t="s">
+        <v>683</v>
+      </c>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" t="s">
+        <v>707</v>
+      </c>
+      <c r="D29" t="s">
+        <v>503</v>
+      </c>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29" t="s">
+        <v>708</v>
+      </c>
+      <c r="H29" t="s">
+        <v>684</v>
+      </c>
+      <c r="I29"/>
+      <c r="J29"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -8795,9 +9554,9 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<scriptIds xmlns="http://schemas.microsoft.com/office/extensibility/maker/v1.0" id="script-ids-node-id">
-  <scriptId id="ms-officescript%3A%2F%2Fonedrive_business_itemlink%2F01LG763KNURG5YXEOIGVFYKVI5JQCZG47R:ms-officescript%3A%2F%2Fonedrive_business_sharinglink%2Fu!aHR0cHM6Ly8zNjV1dHNvdXRod2VzdGVybi1teS5zaGFyZXBvaW50LmNvbS86dTovZy9wZXJzb25hbC9hYmlnYWlsX2xld2lzX3V0c291dGh3ZXN0ZXJuX2VkdS9FYlNKdTR1UnlEVkxoVlVkVEFXVGNfRUJ4RXpaczgyNU5ndEE5M1hkTkRxQlpn"/>
-</scriptIds>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8966,9 +9725,9 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<scriptIds xmlns="http://schemas.microsoft.com/office/extensibility/maker/v1.0" id="script-ids-node-id">
+  <scriptId id="ms-officescript%3A%2F%2Fonedrive_business_itemlink%2F01LG763KNURG5YXEOIGVFYKVI5JQCZG47R:ms-officescript%3A%2F%2Fonedrive_business_sharinglink%2Fu!aHR0cHM6Ly8zNjV1dHNvdXRod2VzdGVybi1teS5zaGFyZXBvaW50LmNvbS86dTovZy9wZXJzb25hbC9hYmlnYWlsX2xld2lzX3V0c291dGh3ZXN0ZXJuX2VkdS9FYlNKdTR1UnlEVkxoVlVkVEFXVGNfRUJ4RXpaczgyNU5ndEE5M1hkTkRxQlpn"/>
+</scriptIds>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8980,9 +9739,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5B9B7CB-CCDD-4B54-905C-F8BE57B4D8CD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FA16BEB-0523-4F04-9A45-82DF970EB511}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/extensibility/maker/v1.0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="51635bf0-3289-44e9-95c5-5505efa9427e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="d0eb518e-69e0-47b9-b413-7592cd52f95f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9007,18 +9775,9 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FA16BEB-0523-4F04-9A45-82DF970EB511}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5B9B7CB-CCDD-4B54-905C-F8BE57B4D8CD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="51635bf0-3289-44e9-95c5-5505efa9427e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="d0eb518e-69e0-47b9-b413-7592cd52f95f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/extensibility/maker/v1.0"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Clinic Sign-Up Prototype_2.xlsx
+++ b/Clinic Sign-Up Prototype_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Desktop\Desktop\Clinics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F86A42A-1519-44F2-BBAB-F9833821E51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12843735-5276-437E-8C0A-9105F2B1DFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="975" yWindow="-120" windowWidth="27945" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="717">
   <si>
     <t>ID</t>
   </si>
@@ -1938,48 +1938,24 @@
     <t>Stephanie Sorenson, Sean Richardson</t>
   </si>
   <si>
-    <t>John Sandy, Judy Salgado, John Catchings, Gerald Potter, Rochelle Braithwaite, Arthur Stockton</t>
-  </si>
-  <si>
-    <t>Kevin VanHorn, John Sandy, Susan Tilford, Gregory Forbis, Arthur Stockton</t>
-  </si>
-  <si>
-    <t>Paul Meier, John Sandy</t>
-  </si>
-  <si>
-    <t>Arthur Stockton, Paul Meier</t>
-  </si>
-  <si>
-    <t>Arthur Stockton, John Sandy</t>
-  </si>
-  <si>
     <t>Joe Kittelson, Melissa Thompson</t>
   </si>
   <si>
     <t>Michele Slade, Michael Leatherwood</t>
   </si>
   <si>
-    <t>John Sandy, Brenda Mcbride</t>
-  </si>
-  <si>
     <t>Michael Leatherwood, Javier Diclaudio</t>
   </si>
   <si>
     <t>Jim Lewis, Glen Riggs, Michele Slade</t>
   </si>
   <si>
-    <t>Rochelle Braithwaite, Mary Javier, Gordon Garcia, Kenneth Neal</t>
-  </si>
-  <si>
     <t>Glen Riggs, Michele Slade, Lester Mcdonald, Gwendolyn Mcvay, Timothy Calloway</t>
   </si>
   <si>
     <t>Patricia Lee, Percy Bubier, Karen Egnew</t>
   </si>
   <si>
-    <t>Sean Richardson, Patricia Lee, Jim Lewis</t>
-  </si>
-  <si>
     <t>Gwendolyn Mcvay, Patricia Lee, Jim Lewis</t>
   </si>
   <si>
@@ -1998,36 +1974,6 @@
     <t>Details_WaitlistTranslator</t>
   </si>
   <si>
-    <t>Joseph Dodd, Sandra Valdez</t>
-  </si>
-  <si>
-    <t>Sandra Valdez, Jeremiah Lopez, Rochelle Braithwaite, Mary Javier, Kenneth Neal</t>
-  </si>
-  <si>
-    <t>Daniel Baker, Patrick Hooks, Brenda Mcbride, John Yates</t>
-  </si>
-  <si>
-    <t>John Sandy, Patrick Hooks, Brenda Mcbride, David Taylor, John Yates, Susan Tilford</t>
-  </si>
-  <si>
-    <t>John Sandy, Daniel Baker, Mary Javier, Patrick Hooks, David Taylor, Susan Tilford</t>
-  </si>
-  <si>
-    <t>Daniel Baker, Patrick Hooks, Brenda Mcbride</t>
-  </si>
-  <si>
-    <t>Daniel Baker, Patrick Hooks</t>
-  </si>
-  <si>
-    <t>Kenneth Neal, Patrick Hooks, John Catchings, Sandra Valdez</t>
-  </si>
-  <si>
-    <t>Rosa Reyes, John Sandy, Arthur Stockton, Pedro Ware, Daniel Baker, Holly Reed</t>
-  </si>
-  <si>
-    <t>Rochelle Braithwaite, Shelby Boyd, Gordon Garcia, John Sandy, Clarence Wilder, Patrick Hooks</t>
-  </si>
-  <si>
     <t>Rochelle Braithwaite, John Sandy, Patrick Hooks</t>
   </si>
   <si>
@@ -2043,63 +1989,21 @@
     <t>Sean Richardson[6][EL]-MS1</t>
   </si>
   <si>
-    <t>John Sandy[1][EL]-MS4, Judy Salgado[1][EL]-MS4, John Catchings[2][EL]-MS2, Gerald Potter[2]-MS4, Rochelle Braithwaite[3][EL]-MS4, Arthur Stockton[6]-MS2</t>
-  </si>
-  <si>
-    <t>Joseph Dodd[7][EL]-MS1, Sandra Valdez[8]-MS1</t>
-  </si>
-  <si>
-    <t>Kevin VanHorn[1][EL]-MS4, John Sandy[2][EL]-MS4, Susan Tilford[2][EL]-MS1, Gregory Forbis[2]-MS0, Arthur Stockton[3]-MS2</t>
-  </si>
-  <si>
-    <t>Sandra Valdez[4]-MS1, Jeremiah Lopez[5][EL]-MS4, Rochelle Braithwaite[7][EL]-MS4, Mary Javier[7][EL]-MS2, Kenneth Neal[7]-MS0</t>
-  </si>
-  <si>
-    <t>Paul Meier[2][EL]-MS2, John Sandy[3][EL]-MS4</t>
-  </si>
-  <si>
-    <t>Daniel Baker[3][EL]-MS4, Patrick Hooks[3]-MS2, Brenda Mcbride[5]-MS2, John Yates[8]-MS4</t>
-  </si>
-  <si>
-    <t>Arthur Stockton[1]-MS2, Paul Meier[2][EL]-MS2</t>
-  </si>
-  <si>
-    <t>John Sandy[3][EL]-MS4, Patrick Hooks[3]-MS2, Brenda Mcbride[5]-MS2, David Taylor[5][EL]-MS1, John Yates[8]-MS4, Susan Tilford[8][EL]-MS1</t>
-  </si>
-  <si>
     <t>Jim Lewis[7][EL]-MS3</t>
   </si>
   <si>
-    <t>John Sandy[3][EL]-MS4, Daniel Baker[3][EL]-MS4, Mary Javier[3][EL]-MS2, Patrick Hooks[3]-MS2, David Taylor[5][EL]-MS1, Susan Tilford[8][EL]-MS1</t>
-  </si>
-  <si>
     <t>Joe Kittelson[5]-MS4</t>
   </si>
   <si>
-    <t>Arthur Stockton[1]-MS2, John Sandy[3][EL]-MS4</t>
-  </si>
-  <si>
-    <t>Daniel Baker[3][EL]-MS4, Patrick Hooks[3]-MS2, Brenda Mcbride[5]-MS2</t>
-  </si>
-  <si>
     <t>Joe Kittelson[5]-MS4, Melissa Thompson[7][EL]-MS2</t>
   </si>
   <si>
-    <t>Daniel Baker[3][EL]-MS4, Patrick Hooks[3]-MS2</t>
-  </si>
-  <si>
     <t>Michele Slade[5][EL]-MS4, Michael Leatherwood[8][EL]-MS0</t>
   </si>
   <si>
     <t>Leanna Hill[5][EL]-MS0</t>
   </si>
   <si>
-    <t>John Sandy[4][EL]-MS4, Brenda Mcbride[4]-MS2</t>
-  </si>
-  <si>
-    <t>Kenneth Neal[5]-MS0, Patrick Hooks[6]-MS2, John Catchings[7][EL]-MS2, Sandra Valdez[7]-MS1</t>
-  </si>
-  <si>
     <t>Michael Leatherwood[6][EL]-MS0, Javier Diclaudio[7][EL]-MS0</t>
   </si>
   <si>
@@ -2109,15 +2013,9 @@
     <t>Jim Lewis[4][EL]-MS3, Glen Riggs[5]-MS2, Michele Slade[6][EL]-MS4</t>
   </si>
   <si>
-    <t>Rochelle Braithwaite[1][EL]-MS4, Mary Javier[1][EL]-MS2, Gordon Garcia[1]-MS0, Kenneth Neal[3]-MS0</t>
-  </si>
-  <si>
     <t>Robert Riddle[1]-MS1</t>
   </si>
   <si>
-    <t>Rosa Reyes[3]-MS0, John Sandy[5][EL]-MS4, Arthur Stockton[7]-MS2, Pedro Ware[7][EL]-MS4, Daniel Baker[8][EL]-MS4, Holly Reed[8]-MS4</t>
-  </si>
-  <si>
     <t>Glen Riggs[5]-MS2, Michele Slade[6][EL]-MS4, Lester Mcdonald[6]-MS3, Gwendolyn Mcvay[6]-MS0, Timothy Calloway[8][EL]-MS3</t>
   </si>
   <si>
@@ -2127,9 +2025,6 @@
     <t>Karen Egnew[7][EL]-MS4</t>
   </si>
   <si>
-    <t>Rochelle Braithwaite[4][EL]-MS4, Shelby Boyd[4][EL]-MS2, Gordon Garcia[5]-MS0, John Sandy[6][EL]-MS4, Clarence Wilder[7]-MS2, Patrick Hooks[7]-MS2</t>
-  </si>
-  <si>
     <t>William Cauley[4][EL]-MS0</t>
   </si>
   <si>
@@ -2142,9 +2037,6 @@
     <t>Heather Favorite[4]-MS0</t>
   </si>
   <si>
-    <t>Sean Richardson[7][EL]-MS1, Patricia Lee[8]-MS1, Jim Lewis[8][EL]-MS3</t>
-  </si>
-  <si>
     <t>Gordon Garcia[8]-MS0</t>
   </si>
   <si>
@@ -2169,51 +2061,15 @@
     <t>Harry Villaman[6]-MS0, John Sandy[1][EL]-MS4, Rochelle Braithwaite[3][EL]-MS4, Arthur Stockton[6]-MS2, Myra Martinez[8][EL]-MS0, Sandra Valdez[8]-MS1</t>
   </si>
   <si>
-    <t>Kevin VanHorn, Helen Humphreys, John Sandy, John Catchings, Sandra Valdez</t>
-  </si>
-  <si>
-    <t>Annemarie Coke, Holly Reed, Jeremiah Lopez, Rochelle Braithwaite, Mary Javier, Kenneth Neal</t>
-  </si>
-  <si>
-    <t>Kevin VanHorn[1][EL]-MS4, Helen Humphreys[1][EL]-MS4, John Sandy[2][EL]-MS4, John Catchings[4][EL]-MS2, Sandra Valdez[4]-MS1</t>
-  </si>
-  <si>
-    <t>Annemarie Coke[3][EL]-MS3, Holly Reed[3]-MS4, Jeremiah Lopez[5][EL]-MS4, Rochelle Braithwaite[7][EL]-MS4, Mary Javier[7][EL]-MS2, Kenneth Neal[7]-MS0</t>
-  </si>
-  <si>
-    <t>Kevin VanHorn, Crystal Daniel</t>
-  </si>
-  <si>
     <t>John Sandy, John Catchings</t>
   </si>
   <si>
-    <t>Kevin VanHorn[2][EL]-MS4, Crystal Daniel[4][EL]-MS2</t>
-  </si>
-  <si>
     <t>John Sandy[4][EL]-MS4, John Catchings[7][EL]-MS2</t>
   </si>
   <si>
-    <t>Rochelle Braithwaite, Mary Javier, John Sandy, John Catchings</t>
-  </si>
-  <si>
-    <t>Kenneth Neal, Arthur Stockton, Pedro Ware, Daniel Baker, Holly Reed</t>
-  </si>
-  <si>
-    <t>Rochelle Braithwaite[1][EL]-MS4, Mary Javier[1][EL]-MS2, John Sandy[5][EL]-MS4, John Catchings[5][EL]-MS2</t>
-  </si>
-  <si>
-    <t>Kenneth Neal[3]-MS0, Arthur Stockton[7]-MS2, Pedro Ware[7][EL]-MS4, Daniel Baker[8][EL]-MS4, Holly Reed[8]-MS4</t>
-  </si>
-  <si>
-    <t>Jeremiah Lopez, Helen Humphreys, Waldo Gray, David Whapham, Brenda Mcbride, Ronald Shaver</t>
-  </si>
-  <si>
     <t>Joseph Dodd, Mary Javier, Kenneth Neal</t>
   </si>
   <si>
-    <t>Jeremiah Lopez[3][EL]-MS4, Helen Humphreys[7][EL]-MS4, Waldo Gray[2]-MS1, David Whapham[2]-MS2, Brenda Mcbride[2]-MS2, Ronald Shaver[3]-MS3</t>
-  </si>
-  <si>
     <t>Joseph Dodd[5][EL]-MS1, Mary Javier[5][EL]-MS2, Kenneth Neal[8]-MS0</t>
   </si>
   <si>
@@ -2223,10 +2079,178 @@
     <t>Waldo Gray[2]-MS1, Clarence Wilder[2]-MS2, Ronald Shaver[3]-MS3, Kenneth Neal[8]-MS0, David Whapham[2]-MS2, Mary Javier[5][EL]-MS2</t>
   </si>
   <si>
-    <t>Kevin VanHorn, Susan Tilford, John Sandy</t>
-  </si>
-  <si>
-    <t>Kevin VanHorn[3][EL]-MS4, Susan Tilford[4][EL]-MS1, John Sandy[7][EL]-MS4</t>
+    <t>Stephanie Sorenson, Phyllis Davis</t>
+  </si>
+  <si>
+    <t>Arthur Stockton, Sandra Valdez</t>
+  </si>
+  <si>
+    <t>Stephanie Sorenson[5]-MS3, Phyllis Davis[7][EL]-MS2</t>
+  </si>
+  <si>
+    <t>Arthur Stockton[6]-MS2, Sandra Valdez[8]-MS1</t>
+  </si>
+  <si>
+    <t>Kevin VanHorn, Helen Humphreys, Annemarie Coke, Sandra Valdez, John Catchings</t>
+  </si>
+  <si>
+    <t>Kevin VanHorn[1][EL]-MS4, Helen Humphreys[1][EL]-MS4, Annemarie Coke[3][EL]-MS3, Sandra Valdez[4]-MS1, John Catchings[4][EL]-MS2</t>
+  </si>
+  <si>
+    <t>Paul Meier, Daniel Baker</t>
+  </si>
+  <si>
+    <t>Patrick Hooks, Brenda Mcbride, John Sandy, John Yates</t>
+  </si>
+  <si>
+    <t>Paul Meier[2][EL]-MS2, Daniel Baker[3][EL]-MS4</t>
+  </si>
+  <si>
+    <t>Patrick Hooks[3]-MS2, Brenda Mcbride[5]-MS2, John Sandy[3][EL]-MS4, John Yates[8]-MS4</t>
+  </si>
+  <si>
+    <t>Arthur Stockton, Patrick Hooks</t>
+  </si>
+  <si>
+    <t>Arthur Stockton[1]-MS2, Patrick Hooks[3]-MS2</t>
+  </si>
+  <si>
+    <t>Patrick Hooks, John Sandy</t>
+  </si>
+  <si>
+    <t>Patrick Hooks[3]-MS2, John Sandy[3][EL]-MS4</t>
+  </si>
+  <si>
+    <t>Brenda Mcbride, Kenneth Neal</t>
+  </si>
+  <si>
+    <t>John Sandy, Sandra Valdez, Patrick Hooks, John Catchings</t>
+  </si>
+  <si>
+    <t>Brenda Mcbride[4]-MS2, Kenneth Neal[5]-MS0</t>
+  </si>
+  <si>
+    <t>John Sandy[4][EL]-MS4, Sandra Valdez[7]-MS1, Patrick Hooks[6]-MS2, John Catchings[7][EL]-MS2</t>
+  </si>
+  <si>
+    <t>Mary Javier, Rochelle Braithwaite, Pedro Ware, John Catchings</t>
+  </si>
+  <si>
+    <t>Kenneth Neal, Holly Reed, John Sandy, Daniel Baker, Arthur Stockton</t>
+  </si>
+  <si>
+    <t>Mary Javier[1][EL]-MS2, Rochelle Braithwaite[1][EL]-MS4, Pedro Ware[7][EL]-MS4, John Catchings[5][EL]-MS2</t>
+  </si>
+  <si>
+    <t>Kenneth Neal[3]-MS0, Holly Reed[8]-MS4, John Sandy[5][EL]-MS4, Daniel Baker[8][EL]-MS4, Arthur Stockton[7]-MS2</t>
+  </si>
+  <si>
+    <t>Shelby Boyd, Gordon Garcia, Clarence Wilder, Rochelle Braithwaite, John Sandy, Patrick Hooks</t>
+  </si>
+  <si>
+    <t>Shelby Boyd[4][EL]-MS2, Gordon Garcia[5]-MS0, Clarence Wilder[7]-MS2, Rochelle Braithwaite[4][EL]-MS4, John Sandy[6][EL]-MS4, Patrick Hooks[7]-MS2</t>
+  </si>
+  <si>
+    <t>Patricia Lee, Jim Lewis, Sean Richardson</t>
+  </si>
+  <si>
+    <t>Patricia Lee[8]-MS1, Jim Lewis[8][EL]-MS3, Sean Richardson[7][EL]-MS1</t>
+  </si>
+  <si>
+    <t>Susan Tilford, Kevin VanHorn, John Sandy</t>
+  </si>
+  <si>
+    <t>Susan Tilford[4][EL]-MS1, Kevin VanHorn[3][EL]-MS4, John Sandy[7][EL]-MS4</t>
+  </si>
+  <si>
+    <t>Judy Salgado, Gerald Potter, John Catchings, John Sandy, Rochelle Braithwaite, Joseph Dodd</t>
+  </si>
+  <si>
+    <t>Judy Salgado[1][EL]-MS4, Gerald Potter[2]-MS4, John Catchings[2][EL]-MS2, John Sandy[1][EL]-MS4, Rochelle Braithwaite[3][EL]-MS4, Joseph Dodd[7][EL]-MS1</t>
+  </si>
+  <si>
+    <t>Holly Reed, Jeremiah Lopez, John Sandy, Mary Javier, Kenneth Neal, Rochelle Braithwaite</t>
+  </si>
+  <si>
+    <t>Holly Reed[3]-MS4, Jeremiah Lopez[5][EL]-MS4, John Sandy[2][EL]-MS4, Mary Javier[7][EL]-MS2, Kenneth Neal[7]-MS0, Rochelle Braithwaite[7][EL]-MS4</t>
+  </si>
+  <si>
+    <t>Susan Tilford, Gregory Forbis, Kevin VanHorn, Jeremiah Lopez, Arthur Stockton</t>
+  </si>
+  <si>
+    <t>John Sandy, Sandra Valdez, Mary Javier, Kenneth Neal, Rochelle Braithwaite</t>
+  </si>
+  <si>
+    <t>Susan Tilford[2][EL]-MS1, Gregory Forbis[2]-MS0, Kevin VanHorn[1][EL]-MS4, Jeremiah Lopez[5][EL]-MS4, Arthur Stockton[3]-MS2</t>
+  </si>
+  <si>
+    <t>John Sandy[2][EL]-MS4, Sandra Valdez[4]-MS1, Mary Javier[7][EL]-MS2, Kenneth Neal[7]-MS0, Rochelle Braithwaite[7][EL]-MS4</t>
+  </si>
+  <si>
+    <t>Patrick Hooks, Paul Meier</t>
+  </si>
+  <si>
+    <t>Brenda Mcbride, Arthur Stockton, David Taylor, John Sandy, John Yates, Susan Tilford</t>
+  </si>
+  <si>
+    <t>Patrick Hooks[3]-MS2, Paul Meier[2][EL]-MS2</t>
+  </si>
+  <si>
+    <t>Brenda Mcbride[5]-MS2, Arthur Stockton[1]-MS2, David Taylor[5][EL]-MS1, John Sandy[3][EL]-MS4, John Yates[8]-MS4, Susan Tilford[8][EL]-MS1</t>
+  </si>
+  <si>
+    <t>Daniel Baker, Mary Javier</t>
+  </si>
+  <si>
+    <t>Patrick Hooks, Paul Meier, Arthur Stockton, David Taylor, John Sandy, Susan Tilford</t>
+  </si>
+  <si>
+    <t>Daniel Baker[3][EL]-MS4, Mary Javier[3][EL]-MS2</t>
+  </si>
+  <si>
+    <t>Patrick Hooks[3]-MS2, Paul Meier[2][EL]-MS2, Arthur Stockton[1]-MS2, David Taylor[5][EL]-MS1, John Sandy[3][EL]-MS4, Susan Tilford[8][EL]-MS1</t>
+  </si>
+  <si>
+    <t>John Sandy, Daniel Baker</t>
+  </si>
+  <si>
+    <t>John Sandy[3][EL]-MS4, Daniel Baker[3][EL]-MS4</t>
+  </si>
+  <si>
+    <t>Crystal Daniel, Kevin VanHorn</t>
+  </si>
+  <si>
+    <t>Crystal Daniel[4][EL]-MS2, Kevin VanHorn[2][EL]-MS4</t>
+  </si>
+  <si>
+    <t>Jeremiah Lopez, Helen Humphreys, Waldo Gray, David Whapham, Ronald Shaver, Brenda Mcbride</t>
+  </si>
+  <si>
+    <t>Jeremiah Lopez[3][EL]-MS4, Helen Humphreys[7][EL]-MS4, Waldo Gray[2]-MS1, David Whapham[2]-MS2, Ronald Shaver[3]-MS3, Brenda Mcbride[2]-MS2</t>
+  </si>
+  <si>
+    <t>Patrick Hooks, Brenda Mcbride</t>
+  </si>
+  <si>
+    <t>Arthur Stockton, Daniel Baker, John Sandy</t>
+  </si>
+  <si>
+    <t>Patrick Hooks[3]-MS2, Brenda Mcbride[5]-MS2</t>
+  </si>
+  <si>
+    <t>Arthur Stockton[1]-MS2, Daniel Baker[3][EL]-MS4, John Sandy[3][EL]-MS4</t>
+  </si>
+  <si>
+    <t>Gordon Garcia, Rosa Reyes, Mary Javier, Kenneth Neal</t>
+  </si>
+  <si>
+    <t>Rochelle Braithwaite, Holly Reed, Pedro Ware, John Sandy, Daniel Baker, Arthur Stockton</t>
+  </si>
+  <si>
+    <t>Gordon Garcia[1]-MS0, Rosa Reyes[3]-MS0, Mary Javier[1][EL]-MS2, Kenneth Neal[3]-MS0</t>
+  </si>
+  <si>
+    <t>Rochelle Braithwaite[1][EL]-MS4, Holly Reed[8]-MS4, Pedro Ware[7][EL]-MS4, John Sandy[5][EL]-MS4, Daniel Baker[8][EL]-MS4, Arthur Stockton[7]-MS2</t>
   </si>
 </sst>
 </file>
@@ -2430,7 +2454,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="22" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -2491,51 +2515,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2555,19 +2541,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{129FA3A9-BD6A-43A7-967D-34493BA52639}" name="Table3" displayName="Table3" ref="A1:J30" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:J30" xr:uid="{129FA3A9-BD6A-43A7-967D-34493BA52639}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F0A78D4A-361F-491E-9D59-CEBC77C07E55}" name="Table2" displayName="Table2" ref="A1:J29" totalsRowShown="0">
+  <autoFilter ref="A1:J29" xr:uid="{F0A78D4A-361F-491E-9D59-CEBC77C07E55}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{495AAC11-C051-4ACC-80A7-911071B7FCA9}" name="Clinic" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{378AC0EF-94FB-46CD-8E75-874B87A75966}" name="Date" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{CF921308-3943-4EAD-A42C-AC7739C411C3}" name="Volunteers" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{964DF9F4-49A2-40D7-B6C9-ADFF5BFE19DC}" name="Translators" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{4DE0C122-11BD-436E-9472-D3E902603D6E}" name="Waitlist-General" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{3562717B-3712-445C-93A3-B86ACAF2DE2F}" name="Waitlist-Translator" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{289DA763-B416-4F7E-B71D-CBA18E38D2A0}" name="Details_Volunteer" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{821FAFF1-1816-438F-9444-2423D26E38B1}" name="Details_Translators" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{3CBA062C-5253-48CD-8DD5-205FF2FBB10A}" name="Details_WaitlistGeneral" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{8B0781DE-2DBC-470C-8837-A642E83797A5}" name="Details_WaitlistTranslator" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{BEE767F8-E7A8-4383-ADC7-9267EAFC90F7}" name="Clinic"/>
+    <tableColumn id="2" xr3:uid="{45B472A3-5EF3-4D40-A6FA-7D2C9859BFB3}" name="Date"/>
+    <tableColumn id="3" xr3:uid="{6735A3B5-8F28-436D-AB58-2FD07759D40F}" name="Volunteers"/>
+    <tableColumn id="4" xr3:uid="{541ED32C-869E-4560-9A6E-7CE5FF69A0E0}" name="Translators"/>
+    <tableColumn id="5" xr3:uid="{79F1DD0A-D2B9-41CC-B7E2-8E9D2052A26C}" name="Waitlist-General"/>
+    <tableColumn id="6" xr3:uid="{FE0307B3-8FB2-4E43-90F5-E4E0EF27AF32}" name="Waitlist-Translator"/>
+    <tableColumn id="7" xr3:uid="{8F07810F-0292-445C-A35F-296BE650DC8A}" name="Details_Volunteer"/>
+    <tableColumn id="8" xr3:uid="{436F301E-31C0-4223-95B1-460DA17C9020}" name="Details_Translators"/>
+    <tableColumn id="9" xr3:uid="{FF2D2432-E57D-44F1-91E9-389526CB8425}" name="Details_WaitlistGeneral"/>
+    <tableColumn id="10" xr3:uid="{5F67CB44-7A09-42EC-9BC9-02DC8837A807}" name="Details_WaitlistTranslator"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2897,7 +2883,7 @@
   <dimension ref="A1:T104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8293,8 +8279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A021EA-029D-4E52-9D29-4D539B994A79}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:E10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8798,11 +8784,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C53F42-3A8C-4FFB-9E26-236D3EB50430}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D14" sqref="D14"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8814,7 +8800,7 @@
     <col min="5" max="5" width="88.85546875" style="23" customWidth="1"/>
     <col min="6" max="6" width="41.5703125" style="23" customWidth="1"/>
     <col min="7" max="7" width="98.7109375" style="23" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" style="23" customWidth="1"/>
+    <col min="8" max="8" width="47" style="23" customWidth="1"/>
     <col min="9" max="9" width="97.140625" style="23" customWidth="1"/>
     <col min="10" max="10" width="106.85546875" style="23" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="23"/>
@@ -8834,10 +8820,10 @@
         <v>52</v>
       </c>
       <c r="E1" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="F1" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="G1" t="s">
         <v>609</v>
@@ -8846,10 +8832,10 @@
         <v>610</v>
       </c>
       <c r="I1" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="J1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -8860,7 +8846,7 @@
         <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>685</v>
+        <v>649</v>
       </c>
       <c r="D2" t="s">
         <v>611</v>
@@ -8872,16 +8858,16 @@
         <v>503</v>
       </c>
       <c r="G2" t="s">
-        <v>686</v>
+        <v>650</v>
       </c>
       <c r="H2" t="s">
-        <v>643</v>
+        <v>625</v>
       </c>
       <c r="I2" t="s">
-        <v>644</v>
+        <v>626</v>
       </c>
       <c r="J2" t="s">
-        <v>645</v>
+        <v>627</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -8892,7 +8878,7 @@
         <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>687</v>
+        <v>651</v>
       </c>
       <c r="D3" t="s">
         <v>546</v>
@@ -8900,10 +8886,10 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="s">
-        <v>688</v>
+        <v>652</v>
       </c>
       <c r="H3" t="s">
-        <v>646</v>
+        <v>628</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
@@ -8916,28 +8902,28 @@
         <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>612</v>
+        <v>687</v>
       </c>
       <c r="D4" t="s">
-        <v>611</v>
+        <v>659</v>
       </c>
       <c r="E4" t="s">
-        <v>632</v>
+        <v>660</v>
       </c>
       <c r="F4" t="s">
-        <v>503</v>
+        <v>546</v>
       </c>
       <c r="G4" t="s">
-        <v>647</v>
+        <v>688</v>
       </c>
       <c r="H4" t="s">
-        <v>643</v>
+        <v>661</v>
       </c>
       <c r="I4" t="s">
-        <v>648</v>
+        <v>662</v>
       </c>
       <c r="J4" t="s">
-        <v>645</v>
+        <v>628</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -8960,19 +8946,19 @@
         <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>689</v>
+        <v>663</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F6"/>
       <c r="G6" t="s">
-        <v>691</v>
+        <v>664</v>
       </c>
       <c r="H6"/>
       <c r="I6" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="J6"/>
     </row>
@@ -8984,19 +8970,19 @@
         <v>99</v>
       </c>
       <c r="C7" t="s">
-        <v>613</v>
+        <v>691</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>633</v>
+        <v>692</v>
       </c>
       <c r="F7"/>
       <c r="G7" t="s">
-        <v>649</v>
+        <v>693</v>
       </c>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>650</v>
+        <v>694</v>
       </c>
       <c r="J7"/>
     </row>
@@ -9020,19 +9006,19 @@
         <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>614</v>
+        <v>665</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>634</v>
+        <v>666</v>
       </c>
       <c r="F9"/>
       <c r="G9" t="s">
-        <v>651</v>
+        <v>667</v>
       </c>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>652</v>
+        <v>668</v>
       </c>
       <c r="J9"/>
     </row>
@@ -9044,24 +9030,24 @@
         <v>161</v>
       </c>
       <c r="C10" t="s">
-        <v>615</v>
+        <v>695</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>635</v>
+        <v>696</v>
       </c>
       <c r="F10" t="s">
         <v>403</v>
       </c>
       <c r="G10" t="s">
-        <v>653</v>
+        <v>697</v>
       </c>
       <c r="H10"/>
       <c r="I10" t="s">
-        <v>654</v>
+        <v>698</v>
       </c>
       <c r="J10" t="s">
-        <v>655</v>
+        <v>629</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -9072,24 +9058,24 @@
         <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>615</v>
+        <v>699</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>636</v>
+        <v>700</v>
       </c>
       <c r="F11" t="s">
         <v>289</v>
       </c>
       <c r="G11" t="s">
-        <v>653</v>
+        <v>701</v>
       </c>
       <c r="H11"/>
       <c r="I11" t="s">
-        <v>656</v>
+        <v>702</v>
       </c>
       <c r="J11" t="s">
-        <v>657</v>
+        <v>630</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -9100,24 +9086,24 @@
         <v>119</v>
       </c>
       <c r="C12" t="s">
-        <v>616</v>
+        <v>709</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>637</v>
+        <v>710</v>
       </c>
       <c r="F12" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="G12" t="s">
-        <v>658</v>
+        <v>711</v>
       </c>
       <c r="H12"/>
       <c r="I12" t="s">
-        <v>659</v>
+        <v>712</v>
       </c>
       <c r="J12" t="s">
-        <v>660</v>
+        <v>631</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -9128,24 +9114,24 @@
         <v>115</v>
       </c>
       <c r="C13" t="s">
-        <v>614</v>
+        <v>665</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>638</v>
+        <v>671</v>
       </c>
       <c r="F13" t="s">
         <v>289</v>
       </c>
       <c r="G13" t="s">
-        <v>651</v>
+        <v>667</v>
       </c>
       <c r="H13"/>
       <c r="I13" t="s">
-        <v>661</v>
+        <v>672</v>
       </c>
       <c r="J13" t="s">
-        <v>657</v>
+        <v>630</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -9156,24 +9142,24 @@
         <v>103</v>
       </c>
       <c r="C14" t="s">
-        <v>616</v>
+        <v>669</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="s">
-        <v>638</v>
+        <v>703</v>
       </c>
       <c r="F14" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G14" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="H14"/>
       <c r="I14" t="s">
-        <v>661</v>
+        <v>704</v>
       </c>
       <c r="J14" t="s">
-        <v>662</v>
+        <v>632</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -9196,24 +9182,24 @@
         <v>109</v>
       </c>
       <c r="C16" t="s">
-        <v>693</v>
+        <v>705</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="s">
-        <v>694</v>
+        <v>653</v>
       </c>
       <c r="F16" t="s">
         <v>334</v>
       </c>
       <c r="G16" t="s">
-        <v>695</v>
+        <v>706</v>
       </c>
       <c r="H16"/>
       <c r="I16" t="s">
-        <v>696</v>
+        <v>654</v>
       </c>
       <c r="J16" t="s">
-        <v>663</v>
+        <v>633</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -9224,24 +9210,24 @@
         <v>101</v>
       </c>
       <c r="C17" t="s">
-        <v>619</v>
+        <v>673</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>639</v>
+        <v>674</v>
       </c>
       <c r="F17" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="G17" t="s">
-        <v>664</v>
+        <v>675</v>
       </c>
       <c r="H17"/>
       <c r="I17" t="s">
-        <v>665</v>
+        <v>676</v>
       </c>
       <c r="J17" t="s">
-        <v>666</v>
+        <v>634</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -9264,28 +9250,28 @@
         <v>113</v>
       </c>
       <c r="C19" t="s">
-        <v>697</v>
+        <v>677</v>
       </c>
       <c r="D19" t="s">
         <v>163</v>
       </c>
       <c r="E19" t="s">
-        <v>698</v>
+        <v>678</v>
       </c>
       <c r="F19" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="G19" t="s">
-        <v>699</v>
+        <v>679</v>
       </c>
       <c r="H19" t="s">
-        <v>667</v>
+        <v>635</v>
       </c>
       <c r="I19" t="s">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="J19" t="s">
-        <v>668</v>
+        <v>636</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -9296,28 +9282,28 @@
         <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>622</v>
+        <v>713</v>
       </c>
       <c r="D20" t="s">
         <v>352</v>
       </c>
       <c r="E20" t="s">
-        <v>640</v>
+        <v>714</v>
       </c>
       <c r="F20" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="G20" t="s">
-        <v>669</v>
+        <v>715</v>
       </c>
       <c r="H20" t="s">
-        <v>670</v>
+        <v>637</v>
       </c>
       <c r="I20" t="s">
-        <v>671</v>
+        <v>716</v>
       </c>
       <c r="J20" t="s">
-        <v>672</v>
+        <v>638</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -9346,17 +9332,17 @@
         <v>427</v>
       </c>
       <c r="E22" t="s">
-        <v>641</v>
+        <v>681</v>
       </c>
       <c r="F22"/>
       <c r="G22" t="s">
-        <v>673</v>
+        <v>639</v>
       </c>
       <c r="H22" t="s">
-        <v>674</v>
+        <v>640</v>
       </c>
       <c r="I22" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="J22"/>
     </row>
@@ -9374,22 +9360,22 @@
         <v>156</v>
       </c>
       <c r="E23" t="s">
+        <v>624</v>
+      </c>
+      <c r="F23" t="s">
+        <v>617</v>
+      </c>
+      <c r="G23" t="s">
+        <v>639</v>
+      </c>
+      <c r="H23" t="s">
+        <v>641</v>
+      </c>
+      <c r="I23" t="s">
         <v>642</v>
       </c>
-      <c r="F23" t="s">
-        <v>624</v>
-      </c>
-      <c r="G23" t="s">
-        <v>673</v>
-      </c>
-      <c r="H23" t="s">
-        <v>676</v>
-      </c>
-      <c r="I23" t="s">
-        <v>677</v>
-      </c>
       <c r="J23" t="s">
-        <v>678</v>
+        <v>643</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -9412,28 +9398,28 @@
         <v>96</v>
       </c>
       <c r="C25" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="D25" t="s">
         <v>440</v>
       </c>
       <c r="E25" t="s">
-        <v>702</v>
+        <v>655</v>
       </c>
       <c r="F25" t="s">
-        <v>625</v>
+        <v>683</v>
       </c>
       <c r="G25" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="H25" t="s">
-        <v>679</v>
+        <v>644</v>
       </c>
       <c r="I25" t="s">
-        <v>704</v>
+        <v>656</v>
       </c>
       <c r="J25" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -9444,7 +9430,7 @@
         <v>104</v>
       </c>
       <c r="C26" t="s">
-        <v>705</v>
+        <v>657</v>
       </c>
       <c r="D26" t="s">
         <v>440</v>
@@ -9453,19 +9439,19 @@
         <v>560</v>
       </c>
       <c r="F26" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="G26" t="s">
-        <v>706</v>
+        <v>658</v>
       </c>
       <c r="H26" t="s">
-        <v>679</v>
+        <v>644</v>
       </c>
       <c r="I26" t="s">
-        <v>681</v>
+        <v>645</v>
       </c>
       <c r="J26" t="s">
-        <v>682</v>
+        <v>646</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -9488,13 +9474,13 @@
         <v>104</v>
       </c>
       <c r="C28" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
       <c r="G28" t="s">
-        <v>683</v>
+        <v>647</v>
       </c>
       <c r="H28"/>
       <c r="I28"/>
@@ -9508,7 +9494,7 @@
         <v>96</v>
       </c>
       <c r="C29" t="s">
-        <v>707</v>
+        <v>685</v>
       </c>
       <c r="D29" t="s">
         <v>503</v>
@@ -9516,50 +9502,132 @@
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29" t="s">
-        <v>708</v>
+        <v>686</v>
       </c>
       <c r="H29" t="s">
-        <v>684</v>
+        <v>648</v>
       </c>
       <c r="I29"/>
       <c r="J29"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100037D8141F98A5E4B81E16549BD24B904" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ff3f115fe85014f51f3f545a574f572d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="51635bf0-3289-44e9-95c5-5505efa9427e" xmlns:ns3="d0eb518e-69e0-47b9-b413-7592cd52f95f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9da3ea708f3e05eff99224ea1dd1a8e2" ns2:_="" ns3:_="">
     <xsd:import namespace="51635bf0-3289-44e9-95c5-5505efa9427e"/>
@@ -9724,6 +9792,21 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <scriptIds xmlns="http://schemas.microsoft.com/office/extensibility/maker/v1.0" id="script-ids-node-id">
   <scriptId id="ms-officescript%3A%2F%2Fonedrive_business_itemlink%2F01LG763KNURG5YXEOIGVFYKVI5JQCZG47R:ms-officescript%3A%2F%2Fonedrive_business_sharinglink%2Fu!aHR0cHM6Ly8zNjV1dHNvdXRod2VzdGVybi1teS5zaGFyZXBvaW50LmNvbS86dTovZy9wZXJzb25hbC9hYmlnYWlsX2xld2lzX3V0c291dGh3ZXN0ZXJuX2VkdS9FYlNKdTR1UnlEVkxoVlVkVEFXVGNfRUJ4RXpaczgyNU5ndEE5M1hkTkRxQlpn"/>
@@ -9731,9 +9814,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63981BB9-060E-4857-8C4B-83421E3C53E1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2572CB0B-2263-4ABB-8F71-C2290B63E0E4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="51635bf0-3289-44e9-95c5-5505efa9427e"/>
+    <ds:schemaRef ds:uri="d0eb518e-69e0-47b9-b413-7592cd52f95f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9756,20 +9850,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2572CB0B-2263-4ABB-8F71-C2290B63E0E4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63981BB9-060E-4857-8C4B-83421E3C53E1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="51635bf0-3289-44e9-95c5-5505efa9427e"/>
-    <ds:schemaRef ds:uri="d0eb518e-69e0-47b9-b413-7592cd52f95f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
